--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -421,1107 +421,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>*******49</v>
+        <v>*******71</v>
       </c>
       <c r="B2" t="str">
-        <v>x0</v>
+        <v>x19.52</v>
       </c>
       <c r="C2" t="str">
-        <v>21279.86 EGP</v>
+        <v>26224.07 EGP</v>
       </c>
       <c r="D2" t="str">
-        <v>0 EGP</v>
+        <v>511893.79 EGP</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>*******67</v>
+        <v>*******33</v>
       </c>
       <c r="B3" t="str">
-        <v>x1.08</v>
+        <v>x5.39</v>
       </c>
       <c r="C3" t="str">
-        <v>16174.01 EGP</v>
+        <v>26057.54 EGP</v>
       </c>
       <c r="D3" t="str">
-        <v>17467.93 EGP</v>
+        <v>140450.11 EGP</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>*******23</v>
+        <v>*******73</v>
       </c>
       <c r="B4" t="str">
-        <v>x0</v>
+        <v>x2.4</v>
       </c>
       <c r="C4" t="str">
-        <v>11859.98 EGP</v>
+        <v>22420.86 EGP</v>
       </c>
       <c r="D4" t="str">
-        <v>0 EGP</v>
+        <v>53810.06 EGP</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>*******29</v>
+        <v>*******23</v>
       </c>
       <c r="B5" t="str">
-        <v>x0</v>
+        <v>x2.19</v>
       </c>
       <c r="C5" t="str">
-        <v>10000 EGP</v>
+        <v>16359.63 EGP</v>
       </c>
       <c r="D5" t="str">
-        <v>0 EGP</v>
+        <v>35827.59 EGP</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>*******57</v>
+        <v>*******71</v>
       </c>
       <c r="B6" t="str">
-        <v>x1.33</v>
+        <v>x4</v>
       </c>
       <c r="C6" t="str">
-        <v>8364.12 EGP</v>
+        <v>16306.45 EGP</v>
       </c>
       <c r="D6" t="str">
-        <v>11124.28 EGP</v>
+        <v>65225.79 EGP</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>*******11</v>
+        <v>*******33</v>
       </c>
       <c r="B7" t="str">
-        <v>x0</v>
+        <v>x8</v>
       </c>
       <c r="C7" t="str">
-        <v>5527.18 EGP</v>
+        <v>12456.03 EGP</v>
       </c>
       <c r="D7" t="str">
-        <v>0 EGP</v>
+        <v>99648.26 EGP</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>*******39</v>
+        <v>*******47</v>
       </c>
       <c r="B8" t="str">
-        <v>x1.4</v>
+        <v>x2.36</v>
       </c>
       <c r="C8" t="str">
-        <v>5475.68 EGP</v>
+        <v>12408.35 EGP</v>
       </c>
       <c r="D8" t="str">
-        <v>7665.95 EGP</v>
+        <v>29283.71 EGP</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>*******21</v>
+        <v>*******23</v>
       </c>
       <c r="B9" t="str">
-        <v>x0</v>
+        <v>x4.19</v>
       </c>
       <c r="C9" t="str">
-        <v>5475.63 EGP</v>
+        <v>9837.71 EGP</v>
       </c>
       <c r="D9" t="str">
-        <v>0 EGP</v>
+        <v>41219.98 EGP</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>*******31</v>
+        <v>*******45</v>
       </c>
       <c r="B10" t="str">
-        <v>x0</v>
+        <v>x2.5</v>
       </c>
       <c r="C10" t="str">
-        <v>5070.11 EGP</v>
+        <v>8417.84 EGP</v>
       </c>
       <c r="D10" t="str">
-        <v>0 EGP</v>
+        <v>21044.61 EGP</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>*******73</v>
+        <v>*******69</v>
       </c>
       <c r="B11" t="str">
-        <v>x0</v>
+        <v>x2.7</v>
       </c>
       <c r="C11" t="str">
-        <v>5069.64 EGP</v>
+        <v>8402.42 EGP</v>
       </c>
       <c r="D11" t="str">
-        <v>0 EGP</v>
+        <v>22686.52 EGP</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>*******79</v>
+        <v>*******09</v>
       </c>
       <c r="B12" t="str">
-        <v>x1.1</v>
+        <v>x2.36</v>
       </c>
       <c r="C12" t="str">
-        <v>5000 EGP</v>
+        <v>7000 EGP</v>
       </c>
       <c r="D12" t="str">
-        <v>5500 EGP</v>
+        <v>16520 EGP</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>*******53</v>
+        <v>*******23</v>
       </c>
       <c r="B13" t="str">
-        <v>x0</v>
+        <v>x10.79</v>
       </c>
       <c r="C13" t="str">
-        <v>5000 EGP</v>
+        <v>6151.05 EGP</v>
       </c>
       <c r="D13" t="str">
-        <v>0 EGP</v>
+        <v>66369.8 EGP</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>*******77</v>
+        <v>*******43</v>
       </c>
       <c r="B14" t="str">
-        <v>x0</v>
+        <v>x15.81</v>
       </c>
       <c r="C14" t="str">
-        <v>4046.98 EGP</v>
+        <v>6010 EGP</v>
       </c>
       <c r="D14" t="str">
-        <v>0 EGP</v>
+        <v>95018.1 EGP</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>*******51</v>
+        <v>*******11</v>
       </c>
       <c r="B15" t="str">
-        <v>x0</v>
+        <v>x2.19</v>
       </c>
       <c r="C15" t="str">
-        <v>3650.75 EGP</v>
+        <v>5707.18 EGP</v>
       </c>
       <c r="D15" t="str">
-        <v>0 EGP</v>
+        <v>12498.72 EGP</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>*******89</v>
+        <v>*******13</v>
       </c>
       <c r="B16" t="str">
-        <v>x0</v>
+        <v>x1.22</v>
       </c>
       <c r="C16" t="str">
-        <v>3433.09 EGP</v>
+        <v>5707.18 EGP</v>
       </c>
       <c r="D16" t="str">
-        <v>0 EGP</v>
+        <v>6962.76 EGP</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>*******03</v>
+        <v>*******59</v>
       </c>
       <c r="B17" t="str">
-        <v>x0</v>
+        <v>x5.21</v>
       </c>
       <c r="C17" t="str">
-        <v>3404.78 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D17" t="str">
-        <v>0 EGP</v>
+        <v>26050 EGP</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>*******41</v>
+        <v>*******27</v>
       </c>
       <c r="B18" t="str">
-        <v>x0</v>
+        <v>x1.7</v>
       </c>
       <c r="C18" t="str">
-        <v>3224.97 EGP</v>
+        <v>4399.15 EGP</v>
       </c>
       <c r="D18" t="str">
-        <v>0 EGP</v>
+        <v>7478.56 EGP</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>*******87</v>
+        <v>*******57</v>
       </c>
       <c r="B19" t="str">
-        <v>x0</v>
+        <v>x8.19</v>
       </c>
       <c r="C19" t="str">
-        <v>3191.25 EGP</v>
+        <v>4089.91 EGP</v>
       </c>
       <c r="D19" t="str">
-        <v>0 EGP</v>
+        <v>33496.34 EGP</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>*******63</v>
+        <v>*******39</v>
       </c>
       <c r="B20" t="str">
-        <v>x0</v>
+        <v>x3.84</v>
       </c>
       <c r="C20" t="str">
-        <v>3042.29 EGP</v>
+        <v>3925 EGP</v>
       </c>
       <c r="D20" t="str">
-        <v>0 EGP</v>
+        <v>15072 EGP</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>*******15</v>
+        <v>*******03</v>
       </c>
       <c r="B21" t="str">
-        <v>x0</v>
+        <v>x4.27</v>
       </c>
       <c r="C21" t="str">
-        <v>3028.63 EGP</v>
+        <v>3913.69 EGP</v>
       </c>
       <c r="D21" t="str">
-        <v>0 EGP</v>
+        <v>16711.46 EGP</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>*******31</v>
+        <v>*******43</v>
       </c>
       <c r="B22" t="str">
-        <v>x0</v>
+        <v>x2.69</v>
       </c>
       <c r="C22" t="str">
-        <v>2871.92 EGP</v>
+        <v>3848.39 EGP</v>
       </c>
       <c r="D22" t="str">
-        <v>0 EGP</v>
+        <v>10352.16 EGP</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>*******83</v>
+        <v>*******33</v>
       </c>
       <c r="B23" t="str">
-        <v>x0</v>
+        <v>x3.45</v>
       </c>
       <c r="C23" t="str">
-        <v>2738.11 EGP</v>
+        <v>3700 EGP</v>
       </c>
       <c r="D23" t="str">
-        <v>0 EGP</v>
+        <v>12765 EGP</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>*******17</v>
+        <v>*******77</v>
       </c>
       <c r="B24" t="str">
-        <v>x0</v>
+        <v>x1.5</v>
       </c>
       <c r="C24" t="str">
-        <v>2565.28 EGP</v>
+        <v>3407.89 EGP</v>
       </c>
       <c r="D24" t="str">
-        <v>0 EGP</v>
+        <v>5111.83 EGP</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>*******45</v>
+        <v>*******67</v>
       </c>
       <c r="B25" t="str">
-        <v>x0</v>
+        <v>x5.73</v>
       </c>
       <c r="C25" t="str">
-        <v>2541.42 EGP</v>
+        <v>3295.07 EGP</v>
       </c>
       <c r="D25" t="str">
-        <v>0 EGP</v>
+        <v>18880.74 EGP</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>*******73</v>
+        <v>*******07</v>
       </c>
       <c r="B26" t="str">
-        <v>x1.3</v>
+        <v>x3.65</v>
       </c>
       <c r="C26" t="str">
-        <v>2527.58 EGP</v>
+        <v>3261.36 EGP</v>
       </c>
       <c r="D26" t="str">
-        <v>3285.86 EGP</v>
+        <v>11903.96 EGP</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>*******95</v>
+        <v>*******45</v>
       </c>
       <c r="B27" t="str">
-        <v>x0</v>
+        <v>x1.91</v>
       </c>
       <c r="C27" t="str">
-        <v>2500 EGP</v>
+        <v>3194.16 EGP</v>
       </c>
       <c r="D27" t="str">
-        <v>0 EGP</v>
+        <v>6100.84 EGP</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>*******13</v>
+        <v>*******25</v>
       </c>
       <c r="B28" t="str">
-        <v>x0</v>
+        <v>x1.52</v>
       </c>
       <c r="C28" t="str">
-        <v>2448.53 EGP</v>
+        <v>3137.99 EGP</v>
       </c>
       <c r="D28" t="str">
-        <v>0 EGP</v>
+        <v>4769.74 EGP</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>*******49</v>
+        <v>*******45</v>
       </c>
       <c r="B29" t="str">
-        <v>x0</v>
+        <v>x2.27</v>
       </c>
       <c r="C29" t="str">
-        <v>2433.83 EGP</v>
+        <v>3090.06 EGP</v>
       </c>
       <c r="D29" t="str">
-        <v>0 EGP</v>
+        <v>7014.43 EGP</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>*******03</v>
+        <v>*******51</v>
       </c>
       <c r="B30" t="str">
-        <v>x0</v>
+        <v>x4</v>
       </c>
       <c r="C30" t="str">
-        <v>2243.86 EGP</v>
+        <v>3051 EGP</v>
       </c>
       <c r="D30" t="str">
-        <v>0 EGP</v>
+        <v>12204 EGP</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>*******81</v>
+        <v>*******27</v>
       </c>
       <c r="B31" t="str">
-        <v>x0</v>
+        <v>x1.42</v>
       </c>
       <c r="C31" t="str">
-        <v>2190.49 EGP</v>
+        <v>3030 EGP</v>
       </c>
       <c r="D31" t="str">
-        <v>0 EGP</v>
+        <v>4302.6 EGP</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>*******65</v>
+        <v>*******71</v>
       </c>
       <c r="B32" t="str">
-        <v>x1.57</v>
+        <v>x0</v>
       </c>
       <c r="C32" t="str">
-        <v>18229.2 EGP</v>
+        <v>26224.07 EGP</v>
       </c>
       <c r="D32" t="str">
-        <v>28619.84 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>*******49</v>
+        <v>*******57</v>
       </c>
       <c r="B33" t="str">
-        <v>x0</v>
+        <v>x1.8</v>
       </c>
       <c r="C33" t="str">
-        <v>17023.89 EGP</v>
+        <v>17400 EGP</v>
       </c>
       <c r="D33" t="str">
-        <v>0 EGP</v>
+        <v>31320 EGP</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>*******67</v>
+        <v>*******23</v>
       </c>
       <c r="B34" t="str">
-        <v>x1.08</v>
+        <v>x4.3</v>
       </c>
       <c r="C34" t="str">
-        <v>16174.01 EGP</v>
+        <v>9837.71 EGP</v>
       </c>
       <c r="D34" t="str">
-        <v>17467.93 EGP</v>
+        <v>42302.13 EGP</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>*******23</v>
+        <v>*******59</v>
       </c>
       <c r="B35" t="str">
-        <v>x0</v>
+        <v>x4.01</v>
       </c>
       <c r="C35" t="str">
-        <v>11859.98 EGP</v>
+        <v>9834.96 EGP</v>
       </c>
       <c r="D35" t="str">
-        <v>0 EGP</v>
+        <v>39438.21 EGP</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>*******29</v>
+        <v>*******69</v>
       </c>
       <c r="B36" t="str">
-        <v>x0</v>
+        <v>x2.77</v>
       </c>
       <c r="C36" t="str">
-        <v>10000 EGP</v>
+        <v>8402.42 EGP</v>
       </c>
       <c r="D36" t="str">
-        <v>0 EGP</v>
+        <v>23274.69 EGP</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>*******11</v>
+        <v>*******05</v>
       </c>
       <c r="B37" t="str">
-        <v>x1.82</v>
+        <v>x1.76</v>
       </c>
       <c r="C37" t="str">
-        <v>5527.18 EGP</v>
+        <v>8027.14 EGP</v>
       </c>
       <c r="D37" t="str">
-        <v>10059.48 EGP</v>
+        <v>14127.76 EGP</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>*******25</v>
+        <v>*******59</v>
       </c>
       <c r="B38" t="str">
-        <v>x0</v>
+        <v>x1.19</v>
       </c>
       <c r="C38" t="str">
-        <v>5476.22 EGP</v>
+        <v>8010 EGP</v>
       </c>
       <c r="D38" t="str">
-        <v>0 EGP</v>
+        <v>9531.9 EGP</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>*******79</v>
+        <v>*******71</v>
       </c>
       <c r="B39" t="str">
-        <v>x1.4</v>
+        <v>x3.08</v>
       </c>
       <c r="C39" t="str">
-        <v>5000 EGP</v>
+        <v>7759 EGP</v>
       </c>
       <c r="D39" t="str">
-        <v>7000 EGP</v>
+        <v>23897.72 EGP</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>*******53</v>
+        <v>*******09</v>
       </c>
       <c r="B40" t="str">
-        <v>x0</v>
+        <v>x2.38</v>
       </c>
       <c r="C40" t="str">
-        <v>5000 EGP</v>
+        <v>7000 EGP</v>
       </c>
       <c r="D40" t="str">
-        <v>0 EGP</v>
+        <v>16660 EGP</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>*******03</v>
+        <v>*******43</v>
       </c>
       <c r="B41" t="str">
-        <v>x1.66</v>
+        <v>x2.35</v>
       </c>
       <c r="C41" t="str">
-        <v>4487.71 EGP</v>
+        <v>6157.42 EGP</v>
       </c>
       <c r="D41" t="str">
-        <v>7449.6 EGP</v>
+        <v>14469.94 EGP</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>*******11</v>
+        <v>*******43</v>
       </c>
       <c r="B42" t="str">
-        <v>x1.47</v>
+        <v>x0</v>
       </c>
       <c r="C42" t="str">
-        <v>4474.4 EGP</v>
+        <v>6010 EGP</v>
       </c>
       <c r="D42" t="str">
-        <v>6577.37 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>*******87</v>
+        <v>*******77</v>
       </c>
       <c r="B43" t="str">
-        <v>x0</v>
+        <v>x2.4</v>
       </c>
       <c r="C43" t="str">
-        <v>4254.99 EGP</v>
+        <v>5111.83 EGP</v>
       </c>
       <c r="D43" t="str">
-        <v>0 EGP</v>
+        <v>12268.4 EGP</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>*******31</v>
+        <v>*******65</v>
       </c>
       <c r="B44" t="str">
-        <v>x0</v>
+        <v>x5</v>
       </c>
       <c r="C44" t="str">
-        <v>4088.84 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D44" t="str">
-        <v>0 EGP</v>
+        <v>25000 EGP</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>*******89</v>
+        <v>*******03</v>
       </c>
       <c r="B45" t="str">
-        <v>x0</v>
+        <v>x2.74</v>
       </c>
       <c r="C45" t="str">
-        <v>3813.27 EGP</v>
+        <v>4892.11 EGP</v>
       </c>
       <c r="D45" t="str">
-        <v>0 EGP</v>
+        <v>13404.39 EGP</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>*******39</v>
+        <v>*******27</v>
       </c>
       <c r="B46" t="str">
-        <v>x1.99</v>
+        <v>x3.36</v>
       </c>
       <c r="C46" t="str">
-        <v>3650.42 EGP</v>
+        <v>4076.55 EGP</v>
       </c>
       <c r="D46" t="str">
-        <v>7264.33 EGP</v>
+        <v>13697.22 EGP</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>*******41</v>
+        <v>*******33</v>
       </c>
       <c r="B47" t="str">
-        <v>x0</v>
+        <v>x2.88</v>
       </c>
       <c r="C47" t="str">
-        <v>3650.42 EGP</v>
+        <v>3650 EGP</v>
       </c>
       <c r="D47" t="str">
-        <v>0 EGP</v>
+        <v>10512 EGP</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>*******61</v>
+        <v>*******07</v>
       </c>
       <c r="B48" t="str">
-        <v>x1.25</v>
+        <v>x5.88</v>
       </c>
       <c r="C48" t="str">
-        <v>3631.21 EGP</v>
+        <v>3636.41 EGP</v>
       </c>
       <c r="D48" t="str">
-        <v>4539.02 EGP</v>
+        <v>21382.11 EGP</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>*******57</v>
+        <v>*******67</v>
       </c>
       <c r="B49" t="str">
-        <v>x1.84</v>
+        <v>x5.25</v>
       </c>
       <c r="C49" t="str">
-        <v>3599.42 EGP</v>
+        <v>3551.67 EGP</v>
       </c>
       <c r="D49" t="str">
-        <v>6622.94 EGP</v>
+        <v>18646.29 EGP</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>*******03</v>
+        <v>*******15</v>
       </c>
       <c r="B50" t="str">
-        <v>x0</v>
+        <v>x2.7</v>
       </c>
       <c r="C50" t="str">
-        <v>3404.78 EGP</v>
+        <v>3545.75 EGP</v>
       </c>
       <c r="D50" t="str">
-        <v>0 EGP</v>
+        <v>9573.52 EGP</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>*******25</v>
+        <v>*******51</v>
       </c>
       <c r="B51" t="str">
-        <v>x1.41</v>
+        <v>x4.13</v>
       </c>
       <c r="C51" t="str">
-        <v>3399.61 EGP</v>
+        <v>3458.67 EGP</v>
       </c>
       <c r="D51" t="str">
-        <v>4793.51 EGP</v>
+        <v>14284.31 EGP</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>*******27</v>
+        <v>*******45</v>
       </c>
       <c r="B52" t="str">
-        <v>x2</v>
+        <v>x3.71</v>
       </c>
       <c r="C52" t="str">
-        <v>3388.56 EGP</v>
+        <v>3090.06 EGP</v>
       </c>
       <c r="D52" t="str">
-        <v>6777.13 EGP</v>
+        <v>11464.12 EGP</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>*******41</v>
+        <v>*******35</v>
       </c>
       <c r="B53" t="str">
-        <v>x1.3</v>
+        <v>x2.02</v>
       </c>
       <c r="C53" t="str">
-        <v>3347.26 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D53" t="str">
-        <v>4351.44 EGP</v>
+        <v>6060 EGP</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>*******15</v>
+        <v>*******23</v>
       </c>
       <c r="B54" t="str">
-        <v>x1.13</v>
+        <v>x3.33</v>
       </c>
       <c r="C54" t="str">
-        <v>3281.26 EGP</v>
+        <v>2888.32 EGP</v>
       </c>
       <c r="D54" t="str">
-        <v>3707.83 EGP</v>
+        <v>9618.1 EGP</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>*******63</v>
+        <v>*******29</v>
       </c>
       <c r="B55" t="str">
-        <v>x0</v>
+        <v>x2.2</v>
       </c>
       <c r="C55" t="str">
-        <v>3042.29 EGP</v>
+        <v>2661.8 EGP</v>
       </c>
       <c r="D55" t="str">
-        <v>0 EGP</v>
+        <v>5855.96 EGP</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>*******21</v>
+        <v>*******47</v>
       </c>
       <c r="B56" t="str">
-        <v>x2.23</v>
+        <v>x3.02</v>
       </c>
       <c r="C56" t="str">
-        <v>3042.02 EGP</v>
+        <v>2655.65 EGP</v>
       </c>
       <c r="D56" t="str">
-        <v>6783.69 EGP</v>
+        <v>8020.07 EGP</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>*******89</v>
+        <v>*******09</v>
       </c>
       <c r="B57" t="str">
-        <v>x2</v>
+        <v>x6</v>
       </c>
       <c r="C57" t="str">
-        <v>2553.58 EGP</v>
+        <v>2500 EGP</v>
       </c>
       <c r="D57" t="str">
-        <v>5107.17 EGP</v>
+        <v>15000 EGP</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>*******37</v>
+        <v>*******65</v>
       </c>
       <c r="B58" t="str">
-        <v>x2.01</v>
+        <v>x3.56</v>
       </c>
       <c r="C58" t="str">
-        <v>2553.58 EGP</v>
+        <v>2492.66 EGP</v>
       </c>
       <c r="D58" t="str">
-        <v>5132.7 EGP</v>
+        <v>8873.87 EGP</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>*******07</v>
+        <v>*******27</v>
       </c>
       <c r="B59" t="str">
-        <v>x2.09</v>
+        <v>x1.92</v>
       </c>
       <c r="C59" t="str">
-        <v>2553 EGP</v>
+        <v>2481.67 EGP</v>
       </c>
       <c r="D59" t="str">
-        <v>5335.76 EGP</v>
+        <v>4764.8 EGP</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>*******73</v>
+        <v>*******27</v>
       </c>
       <c r="B60" t="str">
-        <v>x0</v>
+        <v>x2.98</v>
       </c>
       <c r="C60" t="str">
-        <v>2534.82 EGP</v>
+        <v>2460 EGP</v>
       </c>
       <c r="D60" t="str">
-        <v>0 EGP</v>
+        <v>7330.8 EGP</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>*******73</v>
+        <v>*******43</v>
       </c>
       <c r="B61" t="str">
-        <v>x2.11</v>
+        <v>x3.07</v>
       </c>
       <c r="C61" t="str">
-        <v>2527.58 EGP</v>
+        <v>2458.64 EGP</v>
       </c>
       <c r="D61" t="str">
-        <v>5333.2 EGP</v>
+        <v>7548.03 EGP</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>*******49</v>
+        <v>*******71</v>
       </c>
       <c r="B62" t="str">
         <v>x0</v>
       </c>
       <c r="C62" t="str">
-        <v>17023.89 EGP</v>
+        <v>26224.07 EGP</v>
       </c>
       <c r="D62" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>*******67</v>
+        <v>*******33</v>
       </c>
       <c r="B63" t="str">
-        <v>x1.08</v>
+        <v>x0</v>
       </c>
       <c r="C63" t="str">
-        <v>16174.01 EGP</v>
+        <v>24912.07 EGP</v>
       </c>
       <c r="D63" t="str">
-        <v>17467.93 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>*******23</v>
+        <v>*******57</v>
       </c>
       <c r="B64" t="str">
         <v>x0</v>
       </c>
       <c r="C64" t="str">
-        <v>12368.26 EGP</v>
+        <v>22400 EGP</v>
       </c>
       <c r="D64" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>*******29</v>
+        <v>*******69</v>
       </c>
       <c r="B65" t="str">
         <v>x0</v>
       </c>
       <c r="C65" t="str">
-        <v>10000 EGP</v>
+        <v>13345.01 EGP</v>
       </c>
       <c r="D65" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>*******87</v>
+        <v>*******55</v>
       </c>
       <c r="B66" t="str">
-        <v>x0</v>
+        <v>x1.01</v>
       </c>
       <c r="C66" t="str">
-        <v>8509.99 EGP</v>
+        <v>12866.13 EGP</v>
       </c>
       <c r="D66" t="str">
-        <v>0 EGP</v>
+        <v>12994.79 EGP</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1532,426 +1532,2976 @@
         <v>x0</v>
       </c>
       <c r="C67" t="str">
-        <v>7604.46 EGP</v>
+        <v>11210.43 EGP</v>
       </c>
       <c r="D67" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>*******41</v>
+        <v>*******47</v>
       </c>
       <c r="B68" t="str">
         <v>x0</v>
       </c>
       <c r="C68" t="str">
-        <v>6084.03 EGP</v>
+        <v>11167.52 EGP</v>
       </c>
       <c r="D68" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>*******31</v>
+        <v>*******59</v>
       </c>
       <c r="B69" t="str">
-        <v>x1.13</v>
+        <v>x0</v>
       </c>
       <c r="C69" t="str">
-        <v>5543.06 EGP</v>
+        <v>9834.96 EGP</v>
       </c>
       <c r="D69" t="str">
-        <v>6263.65 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>*******25</v>
+        <v>*******67</v>
       </c>
       <c r="B70" t="str">
-        <v>x0</v>
+        <v>x1.27</v>
       </c>
       <c r="C70" t="str">
-        <v>5476.22 EGP</v>
+        <v>8969.17 EGP</v>
       </c>
       <c r="D70" t="str">
-        <v>0 EGP</v>
+        <v>11390.85 EGP</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>*******53</v>
+        <v>*******41</v>
       </c>
       <c r="B71" t="str">
-        <v>x0</v>
+        <v>x1.09</v>
       </c>
       <c r="C71" t="str">
-        <v>5000 EGP</v>
+        <v>7700.83 EGP</v>
       </c>
       <c r="D71" t="str">
-        <v>0 EGP</v>
+        <v>8393.9 EGP</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>*******51</v>
+        <v>*******91</v>
       </c>
       <c r="B72" t="str">
-        <v>x0</v>
+        <v>x1.12</v>
       </c>
       <c r="C72" t="str">
-        <v>4430.41 EGP</v>
+        <v>7696.78 EGP</v>
       </c>
       <c r="D72" t="str">
-        <v>0 EGP</v>
+        <v>8620.39 EGP</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>*******27</v>
+        <v>*******59</v>
       </c>
       <c r="B73" t="str">
         <v>x0</v>
       </c>
       <c r="C73" t="str">
-        <v>4184.08 EGP</v>
+        <v>7428.49 EGP</v>
       </c>
       <c r="D73" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>*******31</v>
+        <v>*******09</v>
       </c>
       <c r="B74" t="str">
-        <v>x1.38</v>
+        <v>x0</v>
       </c>
       <c r="C74" t="str">
-        <v>4088.84 EGP</v>
+        <v>7000 EGP</v>
       </c>
       <c r="D74" t="str">
-        <v>5642.6 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>*******83</v>
+        <v>*******43</v>
       </c>
       <c r="B75" t="str">
-        <v>x1.37</v>
+        <v>x1.25</v>
       </c>
       <c r="C75" t="str">
-        <v>3995.59 EGP</v>
+        <v>6157.42 EGP</v>
       </c>
       <c r="D75" t="str">
-        <v>5473.96 EGP</v>
+        <v>7696.78 EGP</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>*******51</v>
+        <v>*******13</v>
       </c>
       <c r="B76" t="str">
         <v>x0</v>
       </c>
       <c r="C76" t="str">
-        <v>3650.42 EGP</v>
+        <v>6100 EGP</v>
       </c>
       <c r="D76" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>*******21</v>
+        <v>*******43</v>
       </c>
       <c r="B77" t="str">
         <v>x0</v>
       </c>
       <c r="C77" t="str">
-        <v>3650.42 EGP</v>
+        <v>6010 EGP</v>
       </c>
       <c r="D77" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>*******03</v>
+        <v>*******67</v>
       </c>
       <c r="B78" t="str">
         <v>x0</v>
       </c>
       <c r="C78" t="str">
-        <v>3404.78 EGP</v>
+        <v>5900.68 EGP</v>
       </c>
       <c r="D78" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>*******27</v>
+        <v>*******93</v>
       </c>
       <c r="B79" t="str">
         <v>x0</v>
       </c>
       <c r="C79" t="str">
-        <v>3388.56 EGP</v>
+        <v>5707.26 EGP</v>
       </c>
       <c r="D79" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>*******77</v>
+        <v>*******99</v>
       </c>
       <c r="B80" t="str">
-        <v>x1.58</v>
+        <v>x1.23</v>
       </c>
       <c r="C80" t="str">
-        <v>3313.21 EGP</v>
+        <v>5010 EGP</v>
       </c>
       <c r="D80" t="str">
-        <v>5234.87 EGP</v>
+        <v>6162.3 EGP</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>*******63</v>
+        <v>*******69</v>
       </c>
       <c r="B81" t="str">
         <v>x0</v>
       </c>
       <c r="C81" t="str">
-        <v>3042.29 EGP</v>
+        <v>5010 EGP</v>
       </c>
       <c r="D81" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>*******91</v>
+        <v>*******65</v>
       </c>
       <c r="B82" t="str">
-        <v>x1.25</v>
+        <v>x0</v>
       </c>
       <c r="C82" t="str">
-        <v>3042.02 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D82" t="str">
-        <v>3802.52 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>*******35</v>
+        <v>*******27</v>
       </c>
       <c r="B83" t="str">
         <v>x0</v>
       </c>
       <c r="C83" t="str">
-        <v>3042.02 EGP</v>
+        <v>4076.55 EGP</v>
       </c>
       <c r="D83" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>*******03</v>
+        <v>*******31</v>
       </c>
       <c r="B84" t="str">
-        <v>x0</v>
+        <v>x1.01</v>
       </c>
       <c r="C84" t="str">
-        <v>2842.22 EGP</v>
+        <v>4012.56 EGP</v>
       </c>
       <c r="D84" t="str">
-        <v>0 EGP</v>
+        <v>4052.69 EGP</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>*******57</v>
+        <v>*******67</v>
       </c>
       <c r="B85" t="str">
         <v>x0</v>
       </c>
       <c r="C85" t="str">
-        <v>2821.07 EGP</v>
+        <v>3966.04 EGP</v>
       </c>
       <c r="D85" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>*******11</v>
+        <v>*******51</v>
       </c>
       <c r="B86" t="str">
         <v>x0</v>
       </c>
       <c r="C86" t="str">
-        <v>2763.59 EGP</v>
+        <v>3866.34 EGP</v>
       </c>
       <c r="D86" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>*******03</v>
+        <v>*******91</v>
       </c>
       <c r="B87" t="str">
         <v>x0</v>
       </c>
       <c r="C87" t="str">
-        <v>2602.72 EGP</v>
+        <v>3795.28 EGP</v>
       </c>
       <c r="D87" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>*******77</v>
+        <v>*******61</v>
       </c>
       <c r="B88" t="str">
         <v>x0</v>
       </c>
       <c r="C88" t="str">
-        <v>2555.99 EGP</v>
+        <v>3695.77 EGP</v>
       </c>
       <c r="D88" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>*******05</v>
+        <v>*******59</v>
       </c>
       <c r="B89" t="str">
         <v>x0</v>
       </c>
       <c r="C89" t="str">
-        <v>2553 EGP</v>
+        <v>3680.92 EGP</v>
       </c>
       <c r="D89" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>*******63</v>
+        <v>*******33</v>
       </c>
       <c r="B90" t="str">
-        <v>x1.49</v>
+        <v>x0</v>
       </c>
       <c r="C90" t="str">
-        <v>2553 EGP</v>
+        <v>3650 EGP</v>
       </c>
       <c r="D90" t="str">
-        <v>3803.97 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>*******03</v>
+      </c>
+      <c r="B91" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C91" t="str">
+        <v>3424.48 EGP</v>
+      </c>
+      <c r="D91" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B92" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C92" t="str">
+        <v>26224.07 EGP</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>*******57</v>
+      </c>
+      <c r="B93" t="str">
+        <v>x2.26</v>
+      </c>
+      <c r="C93" t="str">
+        <v>25000 EGP</v>
+      </c>
+      <c r="D93" t="str">
+        <v>56500 EGP</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
         <v>*******73</v>
       </c>
-      <c r="B91" t="str">
-        <v>x1.53</v>
-      </c>
-      <c r="C91" t="str">
-        <v>2527.58 EGP</v>
-      </c>
-      <c r="D91" t="str">
-        <v>3867.2 EGP</v>
-      </c>
-      <c r="E91">
+      <c r="B94" t="str">
+        <v>x2.93</v>
+      </c>
+      <c r="C94" t="str">
+        <v>24912.07 EGP</v>
+      </c>
+      <c r="D94" t="str">
+        <v>72992.35 EGP</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B95" t="str">
+        <v>x1.93</v>
+      </c>
+      <c r="C95" t="str">
+        <v>14751.7 EGP</v>
+      </c>
+      <c r="D95" t="str">
+        <v>28470.78 EGP</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>*******69</v>
+      </c>
+      <c r="B96" t="str">
+        <v>x2.1</v>
+      </c>
+      <c r="C96" t="str">
+        <v>13345.01 EGP</v>
+      </c>
+      <c r="D96" t="str">
+        <v>28024.53 EGP</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>*******73</v>
+      </c>
+      <c r="B97" t="str">
+        <v>x2</v>
+      </c>
+      <c r="C97" t="str">
+        <v>11087.3 EGP</v>
+      </c>
+      <c r="D97" t="str">
+        <v>22174.59 EGP</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B98" t="str">
+        <v>x3.06</v>
+      </c>
+      <c r="C98" t="str">
+        <v>10000 EGP</v>
+      </c>
+      <c r="D98" t="str">
+        <v>30600 EGP</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>*******05</v>
+      </c>
+      <c r="B99" t="str">
+        <v>x1.84</v>
+      </c>
+      <c r="C99" t="str">
+        <v>8027.14 EGP</v>
+      </c>
+      <c r="D99" t="str">
+        <v>14769.93 EGP</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B100" t="str">
+        <v>x1.38</v>
+      </c>
+      <c r="C100" t="str">
+        <v>6157.42 EGP</v>
+      </c>
+      <c r="D100" t="str">
+        <v>8497.24 EGP</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>*******13</v>
+      </c>
+      <c r="B101" t="str">
+        <v>x2.36</v>
+      </c>
+      <c r="C101" t="str">
+        <v>6100 EGP</v>
+      </c>
+      <c r="D101" t="str">
+        <v>14396 EGP</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>*******31</v>
+      </c>
+      <c r="B102" t="str">
+        <v>x1.4</v>
+      </c>
+      <c r="C102" t="str">
+        <v>6000 EGP</v>
+      </c>
+      <c r="D102" t="str">
+        <v>8400 EGP</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>*******95</v>
+      </c>
+      <c r="B103" t="str">
+        <v>x2.31</v>
+      </c>
+      <c r="C103" t="str">
+        <v>5670 EGP</v>
+      </c>
+      <c r="D103" t="str">
+        <v>13097.7 EGP</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B104" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C104" t="str">
+        <v>5327.51 EGP</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>*******99</v>
+      </c>
+      <c r="B105" t="str">
+        <v>x1.02</v>
+      </c>
+      <c r="C105" t="str">
+        <v>5010 EGP</v>
+      </c>
+      <c r="D105" t="str">
+        <v>5110.2 EGP</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B106" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C106" t="str">
+        <v>5000 EGP</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B107" t="str">
+        <v>x3.43</v>
+      </c>
+      <c r="C107" t="str">
+        <v>4942.6 EGP</v>
+      </c>
+      <c r="D107" t="str">
+        <v>16953.12 EGP</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>*******07</v>
+      </c>
+      <c r="B108" t="str">
+        <v>x2.84</v>
+      </c>
+      <c r="C108" t="str">
+        <v>4090.69 EGP</v>
+      </c>
+      <c r="D108" t="str">
+        <v>11617.57 EGP</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>*******57</v>
+      </c>
+      <c r="B109" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C109" t="str">
+        <v>4089.91 EGP</v>
+      </c>
+      <c r="D109" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>*******33</v>
+      </c>
+      <c r="B110" t="str">
+        <v>x1.3</v>
+      </c>
+      <c r="C110" t="str">
+        <v>4076.55 EGP</v>
+      </c>
+      <c r="D110" t="str">
+        <v>5299.52 EGP</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>*******07</v>
+      </c>
+      <c r="B111" t="str">
+        <v>x1.63</v>
+      </c>
+      <c r="C111" t="str">
+        <v>3896.45 EGP</v>
+      </c>
+      <c r="D111" t="str">
+        <v>6351.21 EGP</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>*******91</v>
+      </c>
+      <c r="B112" t="str">
+        <v>x2.06</v>
+      </c>
+      <c r="C112" t="str">
+        <v>3795.28 EGP</v>
+      </c>
+      <c r="D112" t="str">
+        <v>7818.27 EGP</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>*******61</v>
+      </c>
+      <c r="B113" t="str">
+        <v>x1.76</v>
+      </c>
+      <c r="C113" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D113" t="str">
+        <v>6504.55 EGP</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>*******25</v>
+      </c>
+      <c r="B114" t="str">
+        <v>x2.45</v>
+      </c>
+      <c r="C114" t="str">
+        <v>3545.75 EGP</v>
+      </c>
+      <c r="D114" t="str">
+        <v>8687.09 EGP</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>*******89</v>
+      </c>
+      <c r="B115" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C115" t="str">
+        <v>3326.19 EGP</v>
+      </c>
+      <c r="D115" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>*******07</v>
+      </c>
+      <c r="B116" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C116" t="str">
+        <v>3261.36 EGP</v>
+      </c>
+      <c r="D116" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>*******37</v>
+      </c>
+      <c r="B117" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C117" t="str">
+        <v>3261.25 EGP</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B118" t="str">
+        <v>x2.37</v>
+      </c>
+      <c r="C118" t="str">
+        <v>3090.06 EGP</v>
+      </c>
+      <c r="D118" t="str">
+        <v>7323.44 EGP</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>*******79</v>
+      </c>
+      <c r="B119" t="str">
+        <v>x1.72</v>
+      </c>
+      <c r="C119" t="str">
+        <v>3078.78 EGP</v>
+      </c>
+      <c r="D119" t="str">
+        <v>5295.5 EGP</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B120" t="str">
+        <v>x1.23</v>
+      </c>
+      <c r="C120" t="str">
+        <v>3068.02 EGP</v>
+      </c>
+      <c r="D120" t="str">
+        <v>3773.66 EGP</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>*******39</v>
+      </c>
+      <c r="B121" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C121" t="str">
+        <v>3000 EGP</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B122" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C122" t="str">
+        <v>26224.07 EGP</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E122">
         <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B123" t="str">
+        <v>x2.15</v>
+      </c>
+      <c r="C123" t="str">
+        <v>20600 EGP</v>
+      </c>
+      <c r="D123" t="str">
+        <v>44290 EGP</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>*******69</v>
+      </c>
+      <c r="B124" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C124" t="str">
+        <v>13345.01 EGP</v>
+      </c>
+      <c r="D124" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B125" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C125" t="str">
+        <v>12408.35 EGP</v>
+      </c>
+      <c r="D125" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>*******73</v>
+      </c>
+      <c r="B126" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C126" t="str">
+        <v>11087.3 EGP</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B127" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C127" t="str">
+        <v>8287.24 EGP</v>
+      </c>
+      <c r="D127" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>*******73</v>
+      </c>
+      <c r="B128" t="str">
+        <v>x1.75</v>
+      </c>
+      <c r="C128" t="str">
+        <v>7000 EGP</v>
+      </c>
+      <c r="D128" t="str">
+        <v>12250 EGP</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B129" t="str">
+        <v>x1.68</v>
+      </c>
+      <c r="C129" t="str">
+        <v>6157.42 EGP</v>
+      </c>
+      <c r="D129" t="str">
+        <v>10344.47 EGP</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B130" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C130" t="str">
+        <v>6000 EGP</v>
+      </c>
+      <c r="D130" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>*******07</v>
+      </c>
+      <c r="B131" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C131" t="str">
+        <v>5694.64 EGP</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>*******77</v>
+      </c>
+      <c r="B132" t="str">
+        <v>x1.06</v>
+      </c>
+      <c r="C132" t="str">
+        <v>5111.83 EGP</v>
+      </c>
+      <c r="D132" t="str">
+        <v>5418.54 EGP</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>*******59</v>
+      </c>
+      <c r="B133" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C133" t="str">
+        <v>5015.83 EGP</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>*******99</v>
+      </c>
+      <c r="B134" t="str">
+        <v>x1.34</v>
+      </c>
+      <c r="C134" t="str">
+        <v>5010 EGP</v>
+      </c>
+      <c r="D134" t="str">
+        <v>6713.4 EGP</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>*******03</v>
+      </c>
+      <c r="B135" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C135" t="str">
+        <v>4892.11 EGP</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>*******51</v>
+      </c>
+      <c r="B136" t="str">
+        <v>x1.51</v>
+      </c>
+      <c r="C136" t="str">
+        <v>4746.48 EGP</v>
+      </c>
+      <c r="D136" t="str">
+        <v>7167.18 EGP</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>*******79</v>
+      </c>
+      <c r="B137" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C137" t="str">
+        <v>4618.17 EGP</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>*******57</v>
+      </c>
+      <c r="B138" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C138" t="str">
+        <v>4089.91 EGP</v>
+      </c>
+      <c r="D138" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>*******59</v>
+      </c>
+      <c r="B139" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C139" t="str">
+        <v>4089.91 EGP</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>*******93</v>
+      </c>
+      <c r="B140" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C140" t="str">
+        <v>4076.61 EGP</v>
+      </c>
+      <c r="D140" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>*******27</v>
+      </c>
+      <c r="B141" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C141" t="str">
+        <v>4076.55 EGP</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>*******91</v>
+      </c>
+      <c r="B142" t="str">
+        <v>x2.03</v>
+      </c>
+      <c r="C142" t="str">
+        <v>4022.99 EGP</v>
+      </c>
+      <c r="D142" t="str">
+        <v>8166.68 EGP</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>*******41</v>
+      </c>
+      <c r="B143" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C143" t="str">
+        <v>4006.99 EGP</v>
+      </c>
+      <c r="D143" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>*******87</v>
+      </c>
+      <c r="B144" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C144" t="str">
+        <v>3943.41 EGP</v>
+      </c>
+      <c r="D144" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>*******61</v>
+      </c>
+      <c r="B145" t="str">
+        <v>x1.16</v>
+      </c>
+      <c r="C145" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D145" t="str">
+        <v>4287.09 EGP</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B146" t="str">
+        <v>x1.57</v>
+      </c>
+      <c r="C146" t="str">
+        <v>3680.92 EGP</v>
+      </c>
+      <c r="D146" t="str">
+        <v>5779.04 EGP</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>*******51</v>
+      </c>
+      <c r="B147" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C147" t="str">
+        <v>3403.39 EGP</v>
+      </c>
+      <c r="D147" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B148" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C148" t="str">
+        <v>3295.07 EGP</v>
+      </c>
+      <c r="D148" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>*******37</v>
+      </c>
+      <c r="B149" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C149" t="str">
+        <v>3261.25 EGP</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>*******25</v>
+      </c>
+      <c r="B150" t="str">
+        <v>x1.84</v>
+      </c>
+      <c r="C150" t="str">
+        <v>3191.18 EGP</v>
+      </c>
+      <c r="D150" t="str">
+        <v>5871.76 EGP</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B151" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C151" t="str">
+        <v>3090.06 EGP</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B152" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C152" t="str">
+        <v>26224.07 EGP</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B153" t="str">
+        <v>x1.13</v>
+      </c>
+      <c r="C153" t="str">
+        <v>21852.19 EGP</v>
+      </c>
+      <c r="D153" t="str">
+        <v>24692.97 EGP</v>
+      </c>
+      <c r="E153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>*******69</v>
+      </c>
+      <c r="B154" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C154" t="str">
+        <v>18287.61 EGP</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>*******09</v>
+      </c>
+      <c r="B155" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C155" t="str">
+        <v>15000 EGP</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B156" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C156" t="str">
+        <v>14290 EGP</v>
+      </c>
+      <c r="D156" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B157" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C157" t="str">
+        <v>12408.35 EGP</v>
+      </c>
+      <c r="D157" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>*******73</v>
+      </c>
+      <c r="B158" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C158" t="str">
+        <v>11087.3 EGP</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>*******05</v>
+      </c>
+      <c r="B159" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C159" t="str">
+        <v>10702.85 EGP</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>*******59</v>
+      </c>
+      <c r="B160" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C160" t="str">
+        <v>9834.96 EGP</v>
+      </c>
+      <c r="D160" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B161" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C161" t="str">
+        <v>8419.57 EGP</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>*******93</v>
+      </c>
+      <c r="B162" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C162" t="str">
+        <v>7337.9 EGP</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B163" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C163" t="str">
+        <v>7000 EGP</v>
+      </c>
+      <c r="D163" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>*******27</v>
+      </c>
+      <c r="B164" t="str">
+        <v>x1.29</v>
+      </c>
+      <c r="C164" t="str">
+        <v>6392.73 EGP</v>
+      </c>
+      <c r="D164" t="str">
+        <v>8246.62 EGP</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B165" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C165" t="str">
+        <v>6157.42 EGP</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>*******77</v>
+      </c>
+      <c r="B166" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C166" t="str">
+        <v>5418.54 EGP</v>
+      </c>
+      <c r="D166" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B167" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C167" t="str">
+        <v>5327.51 EGP</v>
+      </c>
+      <c r="D167" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B168" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C168" t="str">
+        <v>5000 EGP</v>
+      </c>
+      <c r="D168" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>*******87</v>
+      </c>
+      <c r="B169" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C169" t="str">
+        <v>4732.09 EGP</v>
+      </c>
+      <c r="D169" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>*******11</v>
+      </c>
+      <c r="B170" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C170" t="str">
+        <v>4094.45 EGP</v>
+      </c>
+      <c r="D170" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>*******57</v>
+      </c>
+      <c r="B171" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C171" t="str">
+        <v>4089.91 EGP</v>
+      </c>
+      <c r="D171" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>*******27</v>
+      </c>
+      <c r="B172" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C172" t="str">
+        <v>4076.55 EGP</v>
+      </c>
+      <c r="D172" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>*******33</v>
+      </c>
+      <c r="B173" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C173" t="str">
+        <v>4076.55 EGP</v>
+      </c>
+      <c r="D173" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>*******89</v>
+      </c>
+      <c r="B174" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C174" t="str">
+        <v>4065.34 EGP</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>*******41</v>
+      </c>
+      <c r="B175" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C175" t="str">
+        <v>4006.99 EGP</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>*******39</v>
+      </c>
+      <c r="B176" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C176" t="str">
+        <v>4000 EGP</v>
+      </c>
+      <c r="D176" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>*******51</v>
+      </c>
+      <c r="B177" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C177" t="str">
+        <v>3811.06 EGP</v>
+      </c>
+      <c r="D177" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>*******61</v>
+      </c>
+      <c r="B178" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C178" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>*******07</v>
+      </c>
+      <c r="B179" t="str">
+        <v>x1.23</v>
+      </c>
+      <c r="C179" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D179" t="str">
+        <v>4545.79 EGP</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B180" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C180" t="str">
+        <v>3640.54 EGP</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B181" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C181" t="str">
+        <v>3090.06 EGP</v>
+      </c>
+      <c r="D181" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B182" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C182" t="str">
+        <v>26224.07 EGP</v>
+      </c>
+      <c r="D182" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B183" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C183" t="str">
+        <v>24588.14 EGP</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>*******69</v>
+      </c>
+      <c r="B184" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C184" t="str">
+        <v>18287.61 EGP</v>
+      </c>
+      <c r="D184" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>*******09</v>
+      </c>
+      <c r="B185" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C185" t="str">
+        <v>15000 EGP</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B186" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C186" t="str">
+        <v>12408.35 EGP</v>
+      </c>
+      <c r="D186" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>*******73</v>
+      </c>
+      <c r="B187" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C187" t="str">
+        <v>11087.3 EGP</v>
+      </c>
+      <c r="D187" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>*******59</v>
+      </c>
+      <c r="B188" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C188" t="str">
+        <v>9834.96 EGP</v>
+      </c>
+      <c r="D188" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B189" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C189" t="str">
+        <v>9834.47 EGP</v>
+      </c>
+      <c r="D189" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B190" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C190" t="str">
+        <v>9250.5 EGP</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B191" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C191" t="str">
+        <v>8419.57 EGP</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B192" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C192" t="str">
+        <v>7000 EGP</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>*******97</v>
+      </c>
+      <c r="B193" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C193" t="str">
+        <v>6410 EGP</v>
+      </c>
+      <c r="D193" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>*******27</v>
+      </c>
+      <c r="B194" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C194" t="str">
+        <v>6392.73 EGP</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B195" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C195" t="str">
+        <v>6157.42 EGP</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>*******55</v>
+      </c>
+      <c r="B196" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C196" t="str">
+        <v>5339.35 EGP</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B197" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C197" t="str">
+        <v>5327.51 EGP</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>*******29</v>
+      </c>
+      <c r="B198" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C198" t="str">
+        <v>5323.6 EGP</v>
+      </c>
+      <c r="D198" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B199" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C199" t="str">
+        <v>5000 EGP</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>*******93</v>
+      </c>
+      <c r="B200" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C200" t="str">
+        <v>4891.93 EGP</v>
+      </c>
+      <c r="D200" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B201" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C201" t="str">
+        <v>4732.7 EGP</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E201">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>*******57</v>
+      </c>
+      <c r="B202" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C202" t="str">
+        <v>4089.91 EGP</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>*******61</v>
+      </c>
+      <c r="B203" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C203" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B204" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C204" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D204" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>*******25</v>
+      </c>
+      <c r="B205" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C205" t="str">
+        <v>3567.03 EGP</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>*******27</v>
+      </c>
+      <c r="B206" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C206" t="str">
+        <v>3440 EGP</v>
+      </c>
+      <c r="D206" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>*******95</v>
+      </c>
+      <c r="B207" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C207" t="str">
+        <v>3439.48 EGP</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>*******87</v>
+      </c>
+      <c r="B208" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C208" t="str">
+        <v>3295.07 EGP</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>*******37</v>
+      </c>
+      <c r="B209" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C209" t="str">
+        <v>3261.25 EGP</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>*******45</v>
+      </c>
+      <c r="B210" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C210" t="str">
+        <v>3090.06 EGP</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>*******79</v>
+      </c>
+      <c r="B211" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C211" t="str">
+        <v>3078.78 EGP</v>
+      </c>
+      <c r="D211" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B212" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C212" t="str">
+        <v>26224.07 EGP</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>*******33</v>
+      </c>
+      <c r="B213" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C213" t="str">
+        <v>24912.07 EGP</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B214" t="str">
+        <v>x1.03</v>
+      </c>
+      <c r="C214" t="str">
+        <v>24581.25 EGP</v>
+      </c>
+      <c r="D214" t="str">
+        <v>25318.69 EGP</v>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>*******69</v>
+      </c>
+      <c r="B215" t="str">
+        <v>x1.63</v>
+      </c>
+      <c r="C215" t="str">
+        <v>23230.21 EGP</v>
+      </c>
+      <c r="D215" t="str">
+        <v>37865.24 EGP</v>
+      </c>
+      <c r="E215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>*******73</v>
+      </c>
+      <c r="B216" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C216" t="str">
+        <v>22174.59 EGP</v>
+      </c>
+      <c r="D216" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B217" t="str">
+        <v>x1.08</v>
+      </c>
+      <c r="C217" t="str">
+        <v>19670.51 EGP</v>
+      </c>
+      <c r="D217" t="str">
+        <v>21244.15 EGP</v>
+      </c>
+      <c r="E217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B218" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C218" t="str">
+        <v>14751.7 EGP</v>
+      </c>
+      <c r="D218" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B219" t="str">
+        <v>x1.44</v>
+      </c>
+      <c r="C219" t="str">
+        <v>12314.84 EGP</v>
+      </c>
+      <c r="D219" t="str">
+        <v>17733.37 EGP</v>
+      </c>
+      <c r="E219">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>*******29</v>
+      </c>
+      <c r="B220" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C220" t="str">
+        <v>10647.2 EGP</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>*******19</v>
+      </c>
+      <c r="B221" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C221" t="str">
+        <v>7103.35 EGP</v>
+      </c>
+      <c r="D221" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>*******43</v>
+      </c>
+      <c r="B222" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C222" t="str">
+        <v>7000 EGP</v>
+      </c>
+      <c r="D222" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>*******93</v>
+      </c>
+      <c r="B223" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C223" t="str">
+        <v>6522.58 EGP</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>*******97</v>
+      </c>
+      <c r="B224" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C224" t="str">
+        <v>6410 EGP</v>
+      </c>
+      <c r="D224" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E224">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>*******27</v>
+      </c>
+      <c r="B225" t="str">
+        <v>x1.48</v>
+      </c>
+      <c r="C225" t="str">
+        <v>6392.73 EGP</v>
+      </c>
+      <c r="D225" t="str">
+        <v>9461.24 EGP</v>
+      </c>
+      <c r="E225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B226" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C226" t="str">
+        <v>6204.18 EGP</v>
+      </c>
+      <c r="D226" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>*******55</v>
+      </c>
+      <c r="B227" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C227" t="str">
+        <v>5339.35 EGP</v>
+      </c>
+      <c r="D227" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>*******33</v>
+      </c>
+      <c r="B228" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C228" t="str">
+        <v>5326.47 EGP</v>
+      </c>
+      <c r="D228" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>*******25</v>
+      </c>
+      <c r="B229" t="str">
+        <v>x1.06</v>
+      </c>
+      <c r="C229" t="str">
+        <v>5318.63 EGP</v>
+      </c>
+      <c r="D229" t="str">
+        <v>5637.74 EGP</v>
+      </c>
+      <c r="E229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>*******79</v>
+      </c>
+      <c r="B230" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C230" t="str">
+        <v>5130.52 EGP</v>
+      </c>
+      <c r="D230" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>*******99</v>
+      </c>
+      <c r="B231" t="str">
+        <v>x1.25</v>
+      </c>
+      <c r="C231" t="str">
+        <v>5010 EGP</v>
+      </c>
+      <c r="D231" t="str">
+        <v>6262.5 EGP</v>
+      </c>
+      <c r="E231">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>*******67</v>
+      </c>
+      <c r="B232" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C232" t="str">
+        <v>4942.6 EGP</v>
+      </c>
+      <c r="D232" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E232">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>*******87</v>
+      </c>
+      <c r="B233" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C233" t="str">
+        <v>4942.6 EGP</v>
+      </c>
+      <c r="D233" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>*******39</v>
+      </c>
+      <c r="B234" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C234" t="str">
+        <v>4735.72 EGP</v>
+      </c>
+      <c r="D234" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E234">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>*******07</v>
+      </c>
+      <c r="B235" t="str">
+        <v>x1.13</v>
+      </c>
+      <c r="C235" t="str">
+        <v>4098.87 EGP</v>
+      </c>
+      <c r="D235" t="str">
+        <v>4631.73 EGP</v>
+      </c>
+      <c r="E235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>*******71</v>
+      </c>
+      <c r="B236" t="str">
+        <v>x1.56</v>
+      </c>
+      <c r="C236" t="str">
+        <v>4076.55 EGP</v>
+      </c>
+      <c r="D236" t="str">
+        <v>6359.42 EGP</v>
+      </c>
+      <c r="E236">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>*******41</v>
+      </c>
+      <c r="B237" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C237" t="str">
+        <v>4041.45 EGP</v>
+      </c>
+      <c r="D237" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E237">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>*******47</v>
+      </c>
+      <c r="B238" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C238" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D238" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>*******61</v>
+      </c>
+      <c r="B239" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C239" t="str">
+        <v>3695.77 EGP</v>
+      </c>
+      <c r="D239" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>*******91</v>
+      </c>
+      <c r="B240" t="str">
+        <v>x0</v>
+      </c>
+      <c r="C240" t="str">
+        <v>3585.27 EGP</v>
+      </c>
+      <c r="D240" t="str">
+        <v>0 EGP</v>
+      </c>
+      <c r="E240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>*******85</v>
+      </c>
+      <c r="B241" t="str">
+        <v>x1.66</v>
+      </c>
+      <c r="C241" t="str">
+        <v>3460.34 EGP</v>
+      </c>
+      <c r="D241" t="str">
+        <v>5744.16 EGP</v>
+      </c>
+      <c r="E241">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E241"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -421,16 +421,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>*******71</v>
+        <v>*******93</v>
       </c>
       <c r="B2" t="str">
-        <v>x19.52</v>
+        <v>x3.58</v>
       </c>
       <c r="C2" t="str">
-        <v>26224.07 EGP</v>
+        <v>19135.08 EGP</v>
       </c>
       <c r="D2" t="str">
-        <v>511893.79 EGP</v>
+        <v>68503.6 EGP</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -438,16 +438,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>*******33</v>
+        <v>*******05</v>
       </c>
       <c r="B3" t="str">
-        <v>x5.39</v>
+        <v>x2</v>
       </c>
       <c r="C3" t="str">
-        <v>26057.54 EGP</v>
+        <v>15000 EGP</v>
       </c>
       <c r="D3" t="str">
-        <v>140450.11 EGP</v>
+        <v>30000 EGP</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>*******73</v>
+        <v>*******35</v>
       </c>
       <c r="B4" t="str">
-        <v>x2.4</v>
+        <v>x2.99</v>
       </c>
       <c r="C4" t="str">
-        <v>22420.86 EGP</v>
+        <v>8000 EGP</v>
       </c>
       <c r="D4" t="str">
-        <v>53810.06 EGP</v>
+        <v>23920 EGP</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -472,16 +472,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>*******23</v>
+        <v>*******79</v>
       </c>
       <c r="B5" t="str">
-        <v>x2.19</v>
+        <v>x5.66</v>
       </c>
       <c r="C5" t="str">
-        <v>16359.63 EGP</v>
+        <v>7103.32 EGP</v>
       </c>
       <c r="D5" t="str">
-        <v>35827.59 EGP</v>
+        <v>40204.79 EGP</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -489,16 +489,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>*******71</v>
+        <v>*******27</v>
       </c>
       <c r="B6" t="str">
-        <v>x4</v>
+        <v>x1.4</v>
       </c>
       <c r="C6" t="str">
-        <v>16306.45 EGP</v>
+        <v>6553.25 EGP</v>
       </c>
       <c r="D6" t="str">
-        <v>65225.79 EGP</v>
+        <v>9174.55 EGP</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -506,16 +506,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>*******33</v>
+        <v>*******85</v>
       </c>
       <c r="B7" t="str">
-        <v>x8</v>
+        <v>x1.82</v>
       </c>
       <c r="C7" t="str">
-        <v>12456.03 EGP</v>
+        <v>5800 EGP</v>
       </c>
       <c r="D7" t="str">
-        <v>99648.26 EGP</v>
+        <v>10556 EGP</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -523,16 +523,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>*******47</v>
+        <v>*******45</v>
       </c>
       <c r="B8" t="str">
-        <v>x2.36</v>
+        <v>x1.32</v>
       </c>
       <c r="C8" t="str">
-        <v>12408.35 EGP</v>
+        <v>5327.49 EGP</v>
       </c>
       <c r="D8" t="str">
-        <v>29283.71 EGP</v>
+        <v>7032.28 EGP</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -540,16 +540,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>*******23</v>
+        <v>*******53</v>
       </c>
       <c r="B9" t="str">
-        <v>x4.19</v>
+        <v>x1.34</v>
       </c>
       <c r="C9" t="str">
-        <v>9837.71 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D9" t="str">
-        <v>41219.98 EGP</v>
+        <v>6700 EGP</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -557,16 +557,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>*******45</v>
+        <v>*******55</v>
       </c>
       <c r="B10" t="str">
-        <v>x2.5</v>
+        <v>x1.36</v>
       </c>
       <c r="C10" t="str">
-        <v>8417.84 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D10" t="str">
-        <v>21044.61 EGP</v>
+        <v>6800 EGP</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -574,16 +574,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>*******69</v>
+        <v>*******93</v>
       </c>
       <c r="B11" t="str">
-        <v>x2.7</v>
+        <v>x7.74</v>
       </c>
       <c r="C11" t="str">
-        <v>8402.42 EGP</v>
+        <v>4936.39 EGP</v>
       </c>
       <c r="D11" t="str">
-        <v>22686.52 EGP</v>
+        <v>38207.64 EGP</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -591,16 +591,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>*******09</v>
+        <v>*******65</v>
       </c>
       <c r="B12" t="str">
-        <v>x2.36</v>
+        <v>x3.72</v>
       </c>
       <c r="C12" t="str">
-        <v>7000 EGP</v>
+        <v>4272.65 EGP</v>
       </c>
       <c r="D12" t="str">
-        <v>16520 EGP</v>
+        <v>15894.24 EGP</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -608,16 +608,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>*******23</v>
+        <v>*******69</v>
       </c>
       <c r="B13" t="str">
-        <v>x10.79</v>
+        <v>x1.02</v>
       </c>
       <c r="C13" t="str">
-        <v>6151.05 EGP</v>
+        <v>4144.11 EGP</v>
       </c>
       <c r="D13" t="str">
-        <v>66369.8 EGP</v>
+        <v>4226.99 EGP</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -625,16 +625,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>*******43</v>
+        <v>*******13</v>
       </c>
       <c r="B14" t="str">
-        <v>x15.81</v>
+        <v>x4</v>
       </c>
       <c r="C14" t="str">
-        <v>6010 EGP</v>
+        <v>4097.04 EGP</v>
       </c>
       <c r="D14" t="str">
-        <v>95018.1 EGP</v>
+        <v>16388.17 EGP</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>*******11</v>
+        <v>*******01</v>
       </c>
       <c r="B15" t="str">
-        <v>x2.19</v>
+        <v>x2.97</v>
       </c>
       <c r="C15" t="str">
-        <v>5707.18 EGP</v>
+        <v>4095.91 EGP</v>
       </c>
       <c r="D15" t="str">
-        <v>12498.72 EGP</v>
+        <v>12164.85 EGP</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -659,16 +659,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>*******13</v>
+        <v>*******07</v>
       </c>
       <c r="B16" t="str">
-        <v>x1.22</v>
+        <v>x2.96</v>
       </c>
       <c r="C16" t="str">
-        <v>5707.18 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D16" t="str">
-        <v>6962.76 EGP</v>
+        <v>12093.64 EGP</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -676,16 +676,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>*******59</v>
+        <v>*******13</v>
       </c>
       <c r="B17" t="str">
-        <v>x5.21</v>
+        <v>x2.98</v>
       </c>
       <c r="C17" t="str">
-        <v>5000 EGP</v>
+        <v>4000 EGP</v>
       </c>
       <c r="D17" t="str">
-        <v>26050 EGP</v>
+        <v>11920 EGP</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -693,16 +693,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>*******27</v>
+        <v>*******17</v>
       </c>
       <c r="B18" t="str">
-        <v>x1.7</v>
+        <v>x2.16</v>
       </c>
       <c r="C18" t="str">
-        <v>4399.15 EGP</v>
+        <v>3768.22 EGP</v>
       </c>
       <c r="D18" t="str">
-        <v>7478.56 EGP</v>
+        <v>8139.35 EGP</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -710,16 +710,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>*******57</v>
+        <v>*******61</v>
       </c>
       <c r="B19" t="str">
-        <v>x8.19</v>
+        <v>x2.35</v>
       </c>
       <c r="C19" t="str">
-        <v>4089.91 EGP</v>
+        <v>3708.82 EGP</v>
       </c>
       <c r="D19" t="str">
-        <v>33496.34 EGP</v>
+        <v>8715.73 EGP</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>*******39</v>
+        <v>*******19</v>
       </c>
       <c r="B20" t="str">
-        <v>x3.84</v>
+        <v>x3.74</v>
       </c>
       <c r="C20" t="str">
-        <v>3925 EGP</v>
+        <v>3644.82 EGP</v>
       </c>
       <c r="D20" t="str">
-        <v>15072 EGP</v>
+        <v>13631.63 EGP</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -744,16 +744,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>*******03</v>
+        <v>*******17</v>
       </c>
       <c r="B21" t="str">
-        <v>x4.27</v>
+        <v>x2.44</v>
       </c>
       <c r="C21" t="str">
-        <v>3913.69 EGP</v>
+        <v>3600 EGP</v>
       </c>
       <c r="D21" t="str">
-        <v>16711.46 EGP</v>
+        <v>8784 EGP</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -761,16 +761,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>*******43</v>
+        <v>*******93</v>
       </c>
       <c r="B22" t="str">
-        <v>x2.69</v>
+        <v>x2.33</v>
       </c>
       <c r="C22" t="str">
-        <v>3848.39 EGP</v>
+        <v>3277.92 EGP</v>
       </c>
       <c r="D22" t="str">
-        <v>10352.16 EGP</v>
+        <v>7637.56 EGP</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -778,16 +778,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>*******33</v>
+        <v>*******73</v>
       </c>
       <c r="B23" t="str">
-        <v>x3.45</v>
+        <v>x2.17</v>
       </c>
       <c r="C23" t="str">
-        <v>3700 EGP</v>
+        <v>3150 EGP</v>
       </c>
       <c r="D23" t="str">
-        <v>12765 EGP</v>
+        <v>6835.5 EGP</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -795,16 +795,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>*******77</v>
+        <v>*******89</v>
       </c>
       <c r="B24" t="str">
-        <v>x1.5</v>
+        <v>x2</v>
       </c>
       <c r="C24" t="str">
-        <v>3407.89 EGP</v>
+        <v>3078.88 EGP</v>
       </c>
       <c r="D24" t="str">
-        <v>5111.83 EGP</v>
+        <v>6157.76 EGP</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>*******67</v>
+        <v>*******65</v>
       </c>
       <c r="B25" t="str">
-        <v>x5.73</v>
+        <v>x5</v>
       </c>
       <c r="C25" t="str">
-        <v>3295.07 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D25" t="str">
-        <v>18880.74 EGP</v>
+        <v>15000 EGP</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -829,16 +829,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>*******07</v>
+        <v>*******03</v>
       </c>
       <c r="B26" t="str">
-        <v>x3.65</v>
+        <v>x1.22</v>
       </c>
       <c r="C26" t="str">
-        <v>3261.36 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D26" t="str">
-        <v>11903.96 EGP</v>
+        <v>3660 EGP</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -846,16 +846,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>*******45</v>
+        <v>*******53</v>
       </c>
       <c r="B27" t="str">
-        <v>x1.91</v>
+        <v>x1.74</v>
       </c>
       <c r="C27" t="str">
-        <v>3194.16 EGP</v>
+        <v>2887.79 EGP</v>
       </c>
       <c r="D27" t="str">
-        <v>6100.84 EGP</v>
+        <v>5024.75 EGP</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -863,16 +863,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>*******25</v>
+        <v>*******11</v>
       </c>
       <c r="B28" t="str">
-        <v>x1.52</v>
+        <v>x1.29</v>
       </c>
       <c r="C28" t="str">
-        <v>3137.99 EGP</v>
+        <v>2845.14 EGP</v>
       </c>
       <c r="D28" t="str">
-        <v>4769.74 EGP</v>
+        <v>3670.23 EGP</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -880,16 +880,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>*******45</v>
+        <v>*******19</v>
       </c>
       <c r="B29" t="str">
-        <v>x2.27</v>
+        <v>x3.33</v>
       </c>
       <c r="C29" t="str">
-        <v>3090.06 EGP</v>
+        <v>2772.59 EGP</v>
       </c>
       <c r="D29" t="str">
-        <v>7014.43 EGP</v>
+        <v>9232.73 EGP</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -897,16 +897,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>*******51</v>
+        <v>*******43</v>
       </c>
       <c r="B30" t="str">
-        <v>x4</v>
+        <v>x1.58</v>
       </c>
       <c r="C30" t="str">
-        <v>3051 EGP</v>
+        <v>2688.27 EGP</v>
       </c>
       <c r="D30" t="str">
-        <v>12204 EGP</v>
+        <v>4247.47 EGP</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -914,16 +914,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>*******27</v>
+        <v>*******63</v>
       </c>
       <c r="B31" t="str">
-        <v>x1.42</v>
+        <v>x1.86</v>
       </c>
       <c r="C31" t="str">
-        <v>3030 EGP</v>
+        <v>2546.96 EGP</v>
       </c>
       <c r="D31" t="str">
-        <v>4302.6 EGP</v>
+        <v>4737.35 EGP</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -931,13 +931,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>*******71</v>
+        <v>*******99</v>
       </c>
       <c r="B32" t="str">
         <v>x0</v>
       </c>
       <c r="C32" t="str">
-        <v>26224.07 EGP</v>
+        <v>26644.15 EGP</v>
       </c>
       <c r="D32" t="str">
         <v>0 EGP</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>*******57</v>
+        <v>*******63</v>
       </c>
       <c r="B33" t="str">
-        <v>x1.8</v>
+        <v>x0</v>
       </c>
       <c r="C33" t="str">
-        <v>17400 EGP</v>
+        <v>23709.51 EGP</v>
       </c>
       <c r="D33" t="str">
-        <v>31320 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -965,16 +965,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>*******23</v>
+        <v>*******93</v>
       </c>
       <c r="B34" t="str">
-        <v>x4.3</v>
+        <v>x0</v>
       </c>
       <c r="C34" t="str">
-        <v>9837.71 EGP</v>
+        <v>14496.28 EGP</v>
       </c>
       <c r="D34" t="str">
-        <v>42302.13 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>*******59</v>
+        <v>*******55</v>
       </c>
       <c r="B35" t="str">
-        <v>x4.01</v>
+        <v>x0</v>
       </c>
       <c r="C35" t="str">
-        <v>9834.96 EGP</v>
+        <v>12899.38 EGP</v>
       </c>
       <c r="D35" t="str">
-        <v>39438.21 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -999,16 +999,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>*******69</v>
+        <v>*******07</v>
       </c>
       <c r="B36" t="str">
-        <v>x2.77</v>
+        <v>x0</v>
       </c>
       <c r="C36" t="str">
-        <v>8402.42 EGP</v>
+        <v>12257.07 EGP</v>
       </c>
       <c r="D36" t="str">
-        <v>23274.69 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1019,13 +1019,13 @@
         <v>*******05</v>
       </c>
       <c r="B37" t="str">
-        <v>x1.76</v>
+        <v>x0</v>
       </c>
       <c r="C37" t="str">
-        <v>8027.14 EGP</v>
+        <v>10000 EGP</v>
       </c>
       <c r="D37" t="str">
-        <v>14127.76 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>*******59</v>
+        <v>*******85</v>
       </c>
       <c r="B38" t="str">
-        <v>x1.19</v>
+        <v>x0</v>
       </c>
       <c r="C38" t="str">
-        <v>8010 EGP</v>
+        <v>5800 EGP</v>
       </c>
       <c r="D38" t="str">
-        <v>9531.9 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1050,16 +1050,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>*******71</v>
+        <v>*******53</v>
       </c>
       <c r="B39" t="str">
-        <v>x3.08</v>
+        <v>x0</v>
       </c>
       <c r="C39" t="str">
-        <v>7759 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D39" t="str">
-        <v>23897.72 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>*******09</v>
+        <v>*******65</v>
       </c>
       <c r="B40" t="str">
-        <v>x2.38</v>
+        <v>x0</v>
       </c>
       <c r="C40" t="str">
-        <v>7000 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D40" t="str">
-        <v>16660 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>*******43</v>
+        <v>*******93</v>
       </c>
       <c r="B41" t="str">
-        <v>x2.35</v>
+        <v>x0</v>
       </c>
       <c r="C41" t="str">
-        <v>6157.42 EGP</v>
+        <v>4936.39 EGP</v>
       </c>
       <c r="D41" t="str">
-        <v>14469.94 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>*******43</v>
+        <v>*******99</v>
       </c>
       <c r="B42" t="str">
         <v>x0</v>
       </c>
       <c r="C42" t="str">
-        <v>6010 EGP</v>
+        <v>4926.51 EGP</v>
       </c>
       <c r="D42" t="str">
         <v>0 EGP</v>
@@ -1121,13 +1121,13 @@
         <v>*******77</v>
       </c>
       <c r="B43" t="str">
-        <v>x2.4</v>
+        <v>x0</v>
       </c>
       <c r="C43" t="str">
-        <v>5111.83 EGP</v>
+        <v>4191.63 EGP</v>
       </c>
       <c r="D43" t="str">
-        <v>12268.4 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1135,16 +1135,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>*******65</v>
+        <v>*******07</v>
       </c>
       <c r="B44" t="str">
-        <v>x5</v>
+        <v>x0</v>
       </c>
       <c r="C44" t="str">
-        <v>5000 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D44" t="str">
-        <v>25000 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>*******03</v>
+        <v>*******61</v>
       </c>
       <c r="B45" t="str">
-        <v>x2.74</v>
+        <v>x0</v>
       </c>
       <c r="C45" t="str">
-        <v>4892.11 EGP</v>
+        <v>3708.82 EGP</v>
       </c>
       <c r="D45" t="str">
-        <v>13404.39 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>*******27</v>
+        <v>*******17</v>
       </c>
       <c r="B46" t="str">
-        <v>x3.36</v>
+        <v>x0</v>
       </c>
       <c r="C46" t="str">
-        <v>4076.55 EGP</v>
+        <v>3600 EGP</v>
       </c>
       <c r="D46" t="str">
-        <v>13697.22 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>*******33</v>
+        <v>*******01</v>
       </c>
       <c r="B47" t="str">
-        <v>x2.88</v>
+        <v>x0</v>
       </c>
       <c r="C47" t="str">
-        <v>3650 EGP</v>
+        <v>3300 EGP</v>
       </c>
       <c r="D47" t="str">
-        <v>10512 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>*******07</v>
+        <v>*******89</v>
       </c>
       <c r="B48" t="str">
-        <v>x5.88</v>
+        <v>x0</v>
       </c>
       <c r="C48" t="str">
-        <v>3636.41 EGP</v>
+        <v>3078.88 EGP</v>
       </c>
       <c r="D48" t="str">
-        <v>21382.11 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1220,16 +1220,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>*******67</v>
+        <v>*******03</v>
       </c>
       <c r="B49" t="str">
-        <v>x5.25</v>
+        <v>x1.2</v>
       </c>
       <c r="C49" t="str">
-        <v>3551.67 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D49" t="str">
-        <v>18646.29 EGP</v>
+        <v>3600 EGP</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>*******15</v>
+        <v>*******13</v>
       </c>
       <c r="B50" t="str">
-        <v>x2.7</v>
+        <v>x0</v>
       </c>
       <c r="C50" t="str">
-        <v>3545.75 EGP</v>
+        <v>2900 EGP</v>
       </c>
       <c r="D50" t="str">
-        <v>9573.52 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1254,16 +1254,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>*******51</v>
+        <v>*******65</v>
       </c>
       <c r="B51" t="str">
-        <v>x4.13</v>
+        <v>x0</v>
       </c>
       <c r="C51" t="str">
-        <v>3458.67 EGP</v>
+        <v>2841.33 EGP</v>
       </c>
       <c r="D51" t="str">
-        <v>14284.31 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>*******45</v>
+        <v>*******17</v>
       </c>
       <c r="B52" t="str">
-        <v>x3.71</v>
+        <v>x0</v>
       </c>
       <c r="C52" t="str">
-        <v>3090.06 EGP</v>
+        <v>2669.74 EGP</v>
       </c>
       <c r="D52" t="str">
-        <v>11464.12 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1288,16 +1288,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>*******35</v>
+        <v>*******27</v>
       </c>
       <c r="B53" t="str">
-        <v>x2.02</v>
+        <v>x0</v>
       </c>
       <c r="C53" t="str">
-        <v>3000 EGP</v>
+        <v>2621.3 EGP</v>
       </c>
       <c r="D53" t="str">
-        <v>6060 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1305,16 +1305,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>*******23</v>
+        <v>*******55</v>
       </c>
       <c r="B54" t="str">
-        <v>x3.33</v>
+        <v>x0</v>
       </c>
       <c r="C54" t="str">
-        <v>2888.32 EGP</v>
+        <v>2534.08 EGP</v>
       </c>
       <c r="D54" t="str">
-        <v>9618.1 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1322,16 +1322,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>*******29</v>
+        <v>*******11</v>
       </c>
       <c r="B55" t="str">
-        <v>x2.2</v>
+        <v>x0</v>
       </c>
       <c r="C55" t="str">
-        <v>2661.8 EGP</v>
+        <v>2482.29 EGP</v>
       </c>
       <c r="D55" t="str">
-        <v>5855.96 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>*******47</v>
+        <v>*******15</v>
       </c>
       <c r="B56" t="str">
-        <v>x3.02</v>
+        <v>x0</v>
       </c>
       <c r="C56" t="str">
-        <v>2655.65 EGP</v>
+        <v>2482.29 EGP</v>
       </c>
       <c r="D56" t="str">
-        <v>8020.07 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>*******09</v>
+        <v>*******83</v>
       </c>
       <c r="B57" t="str">
-        <v>x6</v>
+        <v>x0</v>
       </c>
       <c r="C57" t="str">
-        <v>2500 EGP</v>
+        <v>2460.57 EGP</v>
       </c>
       <c r="D57" t="str">
-        <v>15000 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>*******65</v>
+        <v>*******69</v>
       </c>
       <c r="B58" t="str">
-        <v>x3.56</v>
+        <v>x0</v>
       </c>
       <c r="C58" t="str">
-        <v>2492.66 EGP</v>
+        <v>2451.41 EGP</v>
       </c>
       <c r="D58" t="str">
-        <v>8873.87 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>*******27</v>
+        <v>*******51</v>
       </c>
       <c r="B59" t="str">
-        <v>x1.92</v>
+        <v>x0</v>
       </c>
       <c r="C59" t="str">
-        <v>2481.67 EGP</v>
+        <v>2251.01 EGP</v>
       </c>
       <c r="D59" t="str">
-        <v>4764.8 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>*******27</v>
+        <v>*******17</v>
       </c>
       <c r="B60" t="str">
-        <v>x2.98</v>
+        <v>x0</v>
       </c>
       <c r="C60" t="str">
-        <v>2460 EGP</v>
+        <v>2222.85 EGP</v>
       </c>
       <c r="D60" t="str">
-        <v>7330.8 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1424,16 +1424,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>*******43</v>
+        <v>*******03</v>
       </c>
       <c r="B61" t="str">
-        <v>x3.07</v>
+        <v>x0</v>
       </c>
       <c r="C61" t="str">
-        <v>2458.64 EGP</v>
+        <v>2221.37 EGP</v>
       </c>
       <c r="D61" t="str">
-        <v>7548.03 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>*******71</v>
+        <v>*******99</v>
       </c>
       <c r="B62" t="str">
         <v>x0</v>
       </c>
       <c r="C62" t="str">
-        <v>26224.07 EGP</v>
+        <v>26644.15 EGP</v>
       </c>
       <c r="D62" t="str">
         <v>0 EGP</v>
@@ -1458,13 +1458,13 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>*******33</v>
+        <v>*******73</v>
       </c>
       <c r="B63" t="str">
         <v>x0</v>
       </c>
       <c r="C63" t="str">
-        <v>24912.07 EGP</v>
+        <v>16000 EGP</v>
       </c>
       <c r="D63" t="str">
         <v>0 EGP</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>*******57</v>
+        <v>*******55</v>
       </c>
       <c r="B64" t="str">
         <v>x0</v>
       </c>
       <c r="C64" t="str">
-        <v>22400 EGP</v>
+        <v>12899.38 EGP</v>
       </c>
       <c r="D64" t="str">
         <v>0 EGP</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>*******69</v>
+        <v>*******07</v>
       </c>
       <c r="B65" t="str">
         <v>x0</v>
       </c>
       <c r="C65" t="str">
-        <v>13345.01 EGP</v>
+        <v>12257.07 EGP</v>
       </c>
       <c r="D65" t="str">
         <v>0 EGP</v>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>*******55</v>
+        <v>*******85</v>
       </c>
       <c r="B66" t="str">
-        <v>x1.01</v>
+        <v>x1.3</v>
       </c>
       <c r="C66" t="str">
-        <v>12866.13 EGP</v>
+        <v>9800 EGP</v>
       </c>
       <c r="D66" t="str">
-        <v>12994.79 EGP</v>
+        <v>12740 EGP</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>*******73</v>
+        <v>*******93</v>
       </c>
       <c r="B67" t="str">
         <v>x0</v>
       </c>
       <c r="C67" t="str">
-        <v>11210.43 EGP</v>
+        <v>9625.53 EGP</v>
       </c>
       <c r="D67" t="str">
         <v>0 EGP</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>*******47</v>
+        <v>*******39</v>
       </c>
       <c r="B68" t="str">
         <v>x0</v>
       </c>
       <c r="C68" t="str">
-        <v>11167.52 EGP</v>
+        <v>8191.82 EGP</v>
       </c>
       <c r="D68" t="str">
         <v>0 EGP</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>*******59</v>
+        <v>*******79</v>
       </c>
       <c r="B69" t="str">
         <v>x0</v>
       </c>
       <c r="C69" t="str">
-        <v>9834.96 EGP</v>
+        <v>7103.32 EGP</v>
       </c>
       <c r="D69" t="str">
         <v>0 EGP</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>*******67</v>
+        <v>*******77</v>
       </c>
       <c r="B70" t="str">
-        <v>x1.27</v>
+        <v>x0</v>
       </c>
       <c r="C70" t="str">
-        <v>8969.17 EGP</v>
+        <v>6826.76 EGP</v>
       </c>
       <c r="D70" t="str">
-        <v>11390.85 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -1594,16 +1594,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>*******41</v>
+        <v>*******65</v>
       </c>
       <c r="B71" t="str">
-        <v>x1.09</v>
+        <v>x0</v>
       </c>
       <c r="C71" t="str">
-        <v>7700.83 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D71" t="str">
-        <v>8393.9 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>*******91</v>
+        <v>*******93</v>
       </c>
       <c r="B72" t="str">
-        <v>x1.12</v>
+        <v>x0</v>
       </c>
       <c r="C72" t="str">
-        <v>7696.78 EGP</v>
+        <v>4936.39 EGP</v>
       </c>
       <c r="D72" t="str">
-        <v>8620.39 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -1628,16 +1628,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>*******59</v>
+        <v>*******53</v>
       </c>
       <c r="B73" t="str">
-        <v>x0</v>
+        <v>x1.36</v>
       </c>
       <c r="C73" t="str">
-        <v>7428.49 EGP</v>
+        <v>4263.06 EGP</v>
       </c>
       <c r="D73" t="str">
-        <v>0 EGP</v>
+        <v>5797.77 EGP</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>*******09</v>
+        <v>*******93</v>
       </c>
       <c r="B74" t="str">
-        <v>x0</v>
+        <v>x1.21</v>
       </c>
       <c r="C74" t="str">
-        <v>7000 EGP</v>
+        <v>3900.81 EGP</v>
       </c>
       <c r="D74" t="str">
-        <v>0 EGP</v>
+        <v>4719.98 EGP</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -1662,16 +1662,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>*******43</v>
+        <v>*******77</v>
       </c>
       <c r="B75" t="str">
-        <v>x1.25</v>
+        <v>x1.02</v>
       </c>
       <c r="C75" t="str">
-        <v>6157.42 EGP</v>
+        <v>3834.97 EGP</v>
       </c>
       <c r="D75" t="str">
-        <v>7696.78 EGP</v>
+        <v>3911.67 EGP</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>*******13</v>
+        <v>*******07</v>
       </c>
       <c r="B76" t="str">
         <v>x0</v>
       </c>
       <c r="C76" t="str">
-        <v>6100 EGP</v>
+        <v>3758.83 EGP</v>
       </c>
       <c r="D76" t="str">
         <v>0 EGP</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>*******43</v>
+        <v>*******85</v>
       </c>
       <c r="B77" t="str">
         <v>x0</v>
       </c>
       <c r="C77" t="str">
-        <v>6010 EGP</v>
+        <v>3644.5 EGP</v>
       </c>
       <c r="D77" t="str">
         <v>0 EGP</v>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>*******67</v>
+        <v>*******05</v>
       </c>
       <c r="B78" t="str">
         <v>x0</v>
       </c>
       <c r="C78" t="str">
-        <v>5900.68 EGP</v>
+        <v>3500 EGP</v>
       </c>
       <c r="D78" t="str">
         <v>0 EGP</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>*******93</v>
+        <v>*******99</v>
       </c>
       <c r="B79" t="str">
         <v>x0</v>
       </c>
       <c r="C79" t="str">
-        <v>5707.26 EGP</v>
+        <v>3468.05 EGP</v>
       </c>
       <c r="D79" t="str">
         <v>0 EGP</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>*******99</v>
+        <v>*******35</v>
       </c>
       <c r="B80" t="str">
-        <v>x1.23</v>
+        <v>x0</v>
       </c>
       <c r="C80" t="str">
-        <v>5010 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D80" t="str">
-        <v>6162.3 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>*******69</v>
+        <v>*******35</v>
       </c>
       <c r="B81" t="str">
         <v>x0</v>
       </c>
       <c r="C81" t="str">
-        <v>5010 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D81" t="str">
         <v>0 EGP</v>
@@ -1787,7 +1787,7 @@
         <v>x0</v>
       </c>
       <c r="C82" t="str">
-        <v>5000 EGP</v>
+        <v>2841.33 EGP</v>
       </c>
       <c r="D82" t="str">
         <v>0 EGP</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>*******27</v>
+        <v>*******61</v>
       </c>
       <c r="B83" t="str">
         <v>x0</v>
       </c>
       <c r="C83" t="str">
-        <v>4076.55 EGP</v>
+        <v>2649.16 EGP</v>
       </c>
       <c r="D83" t="str">
         <v>0 EGP</v>
@@ -1815,16 +1815,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>*******31</v>
+        <v>*******63</v>
       </c>
       <c r="B84" t="str">
-        <v>x1.01</v>
+        <v>x0</v>
       </c>
       <c r="C84" t="str">
-        <v>4012.56 EGP</v>
+        <v>2546.96 EGP</v>
       </c>
       <c r="D84" t="str">
-        <v>4052.69 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>*******67</v>
+        <v>*******01</v>
       </c>
       <c r="B85" t="str">
         <v>x0</v>
       </c>
       <c r="C85" t="str">
-        <v>3966.04 EGP</v>
+        <v>2500 EGP</v>
       </c>
       <c r="D85" t="str">
         <v>0 EGP</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>*******51</v>
+        <v>*******63</v>
       </c>
       <c r="B86" t="str">
         <v>x0</v>
       </c>
       <c r="C86" t="str">
-        <v>3866.34 EGP</v>
+        <v>2500 EGP</v>
       </c>
       <c r="D86" t="str">
         <v>0 EGP</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>*******91</v>
+        <v>*******03</v>
       </c>
       <c r="B87" t="str">
         <v>x0</v>
       </c>
       <c r="C87" t="str">
-        <v>3795.28 EGP</v>
+        <v>2468.19 EGP</v>
       </c>
       <c r="D87" t="str">
         <v>0 EGP</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>*******61</v>
+        <v>*******37</v>
       </c>
       <c r="B88" t="str">
         <v>x0</v>
       </c>
       <c r="C88" t="str">
-        <v>3695.77 EGP</v>
+        <v>2463.25 EGP</v>
       </c>
       <c r="D88" t="str">
         <v>0 EGP</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>*******59</v>
+        <v>*******17</v>
       </c>
       <c r="B89" t="str">
         <v>x0</v>
       </c>
       <c r="C89" t="str">
-        <v>3680.92 EGP</v>
+        <v>2386.3 EGP</v>
       </c>
       <c r="D89" t="str">
         <v>0 EGP</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>*******33</v>
+        <v>*******51</v>
       </c>
       <c r="B90" t="str">
         <v>x0</v>
       </c>
       <c r="C90" t="str">
-        <v>3650 EGP</v>
+        <v>2369.48 EGP</v>
       </c>
       <c r="D90" t="str">
         <v>0 EGP</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>*******03</v>
+        <v>*******83</v>
       </c>
       <c r="B91" t="str">
         <v>x0</v>
       </c>
       <c r="C91" t="str">
-        <v>3424.48 EGP</v>
+        <v>2258.34 EGP</v>
       </c>
       <c r="D91" t="str">
         <v>0 EGP</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>*******71</v>
+        <v>*******93</v>
       </c>
       <c r="B92" t="str">
         <v>x0</v>
       </c>
       <c r="C92" t="str">
-        <v>26224.07 EGP</v>
+        <v>17403.65 EGP</v>
       </c>
       <c r="D92" t="str">
         <v>0 EGP</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>*******57</v>
+        <v>*******39</v>
       </c>
       <c r="B93" t="str">
-        <v>x2.26</v>
+        <v>x1.8</v>
       </c>
       <c r="C93" t="str">
-        <v>25000 EGP</v>
+        <v>16383.63 EGP</v>
       </c>
       <c r="D93" t="str">
-        <v>56500 EGP</v>
+        <v>29490.54 EGP</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -1985,16 +1985,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>*******73</v>
+        <v>*******55</v>
       </c>
       <c r="B94" t="str">
-        <v>x2.93</v>
+        <v>x0</v>
       </c>
       <c r="C94" t="str">
-        <v>24912.07 EGP</v>
+        <v>12899.38 EGP</v>
       </c>
       <c r="D94" t="str">
-        <v>72992.35 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -2002,16 +2002,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>*******67</v>
+        <v>*******07</v>
       </c>
       <c r="B95" t="str">
-        <v>x1.93</v>
+        <v>x0</v>
       </c>
       <c r="C95" t="str">
-        <v>14751.7 EGP</v>
+        <v>12257.07 EGP</v>
       </c>
       <c r="D95" t="str">
-        <v>28470.78 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>*******69</v>
+        <v>*******63</v>
       </c>
       <c r="B96" t="str">
-        <v>x2.1</v>
+        <v>x0</v>
       </c>
       <c r="C96" t="str">
-        <v>13345.01 EGP</v>
+        <v>11854.75 EGP</v>
       </c>
       <c r="D96" t="str">
-        <v>28024.53 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>*******73</v>
+        <v>*******99</v>
       </c>
       <c r="B97" t="str">
-        <v>x2</v>
+        <v>x1.45</v>
       </c>
       <c r="C97" t="str">
-        <v>11087.3 EGP</v>
+        <v>10669.98 EGP</v>
       </c>
       <c r="D97" t="str">
-        <v>22174.59 EGP</v>
+        <v>15471.47 EGP</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>*******71</v>
+        <v>*******77</v>
       </c>
       <c r="B98" t="str">
-        <v>x3.06</v>
+        <v>x0</v>
       </c>
       <c r="C98" t="str">
-        <v>10000 EGP</v>
+        <v>7000 EGP</v>
       </c>
       <c r="D98" t="str">
-        <v>30600 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -2070,16 +2070,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>*******05</v>
+        <v>*******99</v>
       </c>
       <c r="B99" t="str">
-        <v>x1.84</v>
+        <v>x0</v>
       </c>
       <c r="C99" t="str">
-        <v>8027.14 EGP</v>
+        <v>6611.3 EGP</v>
       </c>
       <c r="D99" t="str">
-        <v>14769.93 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -2087,16 +2087,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>*******43</v>
+        <v>*******97</v>
       </c>
       <c r="B100" t="str">
-        <v>x1.38</v>
+        <v>x0</v>
       </c>
       <c r="C100" t="str">
-        <v>6157.42 EGP</v>
+        <v>6532.4 EGP</v>
       </c>
       <c r="D100" t="str">
-        <v>8497.24 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -2104,16 +2104,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>*******13</v>
+        <v>*******05</v>
       </c>
       <c r="B101" t="str">
-        <v>x2.36</v>
+        <v>x0</v>
       </c>
       <c r="C101" t="str">
-        <v>6100 EGP</v>
+        <v>6500 EGP</v>
       </c>
       <c r="D101" t="str">
-        <v>14396 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2121,16 +2121,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>*******31</v>
+        <v>*******45</v>
       </c>
       <c r="B102" t="str">
-        <v>x1.4</v>
+        <v>x1.35</v>
       </c>
       <c r="C102" t="str">
-        <v>6000 EGP</v>
+        <v>5327.49 EGP</v>
       </c>
       <c r="D102" t="str">
-        <v>8400 EGP</v>
+        <v>7192.11 EGP</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -2138,16 +2138,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>*******95</v>
+        <v>*******55</v>
       </c>
       <c r="B103" t="str">
-        <v>x2.31</v>
+        <v>x1.66</v>
       </c>
       <c r="C103" t="str">
-        <v>5670 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D103" t="str">
-        <v>13097.7 EGP</v>
+        <v>8300 EGP</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>*******19</v>
+        <v>*******73</v>
       </c>
       <c r="B104" t="str">
         <v>x0</v>
       </c>
       <c r="C104" t="str">
-        <v>5327.51 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D104" t="str">
         <v>0 EGP</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>*******99</v>
+        <v>*******53</v>
       </c>
       <c r="B105" t="str">
-        <v>x1.02</v>
+        <v>x0</v>
       </c>
       <c r="C105" t="str">
-        <v>5010 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D105" t="str">
-        <v>5110.2 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>*******43</v>
+        <v>*******01</v>
       </c>
       <c r="B106" t="str">
         <v>x0</v>
@@ -2206,16 +2206,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>*******67</v>
+        <v>*******99</v>
       </c>
       <c r="B107" t="str">
-        <v>x3.43</v>
+        <v>x0</v>
       </c>
       <c r="C107" t="str">
-        <v>4942.6 EGP</v>
+        <v>4926.51 EGP</v>
       </c>
       <c r="D107" t="str">
-        <v>16953.12 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -2223,16 +2223,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>*******07</v>
+        <v>*******27</v>
       </c>
       <c r="B108" t="str">
-        <v>x2.84</v>
+        <v>x1.09</v>
       </c>
       <c r="C108" t="str">
-        <v>4090.69 EGP</v>
+        <v>4095.78 EGP</v>
       </c>
       <c r="D108" t="str">
-        <v>11617.57 EGP</v>
+        <v>4464.4 EGP</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>*******57</v>
+        <v>*******07</v>
       </c>
       <c r="B109" t="str">
         <v>x0</v>
       </c>
       <c r="C109" t="str">
-        <v>4089.91 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D109" t="str">
         <v>0 EGP</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>*******33</v>
+        <v>*******89</v>
       </c>
       <c r="B110" t="str">
-        <v>x1.3</v>
+        <v>x0</v>
       </c>
       <c r="C110" t="str">
-        <v>4076.55 EGP</v>
+        <v>3710.45 EGP</v>
       </c>
       <c r="D110" t="str">
-        <v>5299.52 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -2274,16 +2274,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>*******07</v>
+        <v>*******85</v>
       </c>
       <c r="B111" t="str">
-        <v>x1.63</v>
+        <v>x0</v>
       </c>
       <c r="C111" t="str">
-        <v>3896.45 EGP</v>
+        <v>3644.5 EGP</v>
       </c>
       <c r="D111" t="str">
-        <v>6351.21 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>*******91</v>
+        <v>*******41</v>
       </c>
       <c r="B112" t="str">
-        <v>x2.06</v>
+        <v>x0</v>
       </c>
       <c r="C112" t="str">
-        <v>3795.28 EGP</v>
+        <v>3636.68 EGP</v>
       </c>
       <c r="D112" t="str">
-        <v>7818.27 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -2311,13 +2311,13 @@
         <v>*******61</v>
       </c>
       <c r="B113" t="str">
-        <v>x1.76</v>
+        <v>x0</v>
       </c>
       <c r="C113" t="str">
-        <v>3695.77 EGP</v>
+        <v>3630.33 EGP</v>
       </c>
       <c r="D113" t="str">
-        <v>6504.55 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>*******25</v>
+        <v>*******17</v>
       </c>
       <c r="B114" t="str">
-        <v>x2.45</v>
+        <v>x1.31</v>
       </c>
       <c r="C114" t="str">
-        <v>3545.75 EGP</v>
+        <v>3600 EGP</v>
       </c>
       <c r="D114" t="str">
-        <v>8687.09 EGP</v>
+        <v>4716 EGP</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>*******89</v>
+        <v>*******83</v>
       </c>
       <c r="B115" t="str">
-        <v>x0</v>
+        <v>x1.33</v>
       </c>
       <c r="C115" t="str">
-        <v>3326.19 EGP</v>
+        <v>3503.09 EGP</v>
       </c>
       <c r="D115" t="str">
-        <v>0 EGP</v>
+        <v>4659.11 EGP</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>*******07</v>
+        <v>*******77</v>
       </c>
       <c r="B116" t="str">
-        <v>x0</v>
+        <v>x1.06</v>
       </c>
       <c r="C116" t="str">
-        <v>3261.36 EGP</v>
+        <v>3413.38 EGP</v>
       </c>
       <c r="D116" t="str">
-        <v>0 EGP</v>
+        <v>3618.18 EGP</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>*******37</v>
+        <v>*******65</v>
       </c>
       <c r="B117" t="str">
         <v>x0</v>
       </c>
       <c r="C117" t="str">
-        <v>3261.25 EGP</v>
+        <v>3196.49 EGP</v>
       </c>
       <c r="D117" t="str">
         <v>0 EGP</v>
@@ -2393,16 +2393,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>*******45</v>
+        <v>*******55</v>
       </c>
       <c r="B118" t="str">
-        <v>x2.37</v>
+        <v>x0</v>
       </c>
       <c r="C118" t="str">
-        <v>3090.06 EGP</v>
+        <v>3040.9 EGP</v>
       </c>
       <c r="D118" t="str">
-        <v>7323.44 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -2410,16 +2410,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>*******79</v>
+        <v>*******35</v>
       </c>
       <c r="B119" t="str">
-        <v>x1.72</v>
+        <v>x1.37</v>
       </c>
       <c r="C119" t="str">
-        <v>3078.78 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D119" t="str">
-        <v>5295.5 EGP</v>
+        <v>4110 EGP</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>*******45</v>
+        <v>*******03</v>
       </c>
       <c r="B120" t="str">
-        <v>x1.23</v>
+        <v>x0</v>
       </c>
       <c r="C120" t="str">
-        <v>3068.02 EGP</v>
+        <v>2963.69 EGP</v>
       </c>
       <c r="D120" t="str">
-        <v>3773.66 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>*******39</v>
+        <v>*******63</v>
       </c>
       <c r="B121" t="str">
         <v>x0</v>
       </c>
       <c r="C121" t="str">
-        <v>3000 EGP</v>
+        <v>2500 EGP</v>
       </c>
       <c r="D121" t="str">
         <v>0 EGP</v>
@@ -2461,1889 +2461,1889 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>*******71</v>
+        <v>*******93</v>
       </c>
       <c r="B122" t="str">
         <v>x0</v>
       </c>
       <c r="C122" t="str">
-        <v>26224.07 EGP</v>
+        <v>26101.41 EGP</v>
       </c>
       <c r="D122" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E122">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>*******71</v>
+        <v>*******35</v>
       </c>
       <c r="B123" t="str">
-        <v>x2.15</v>
+        <v>x0</v>
       </c>
       <c r="C123" t="str">
-        <v>20600 EGP</v>
+        <v>20000 EGP</v>
       </c>
       <c r="D123" t="str">
-        <v>44290 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>*******69</v>
+        <v>*******97</v>
       </c>
       <c r="B124" t="str">
         <v>x0</v>
       </c>
       <c r="C124" t="str">
-        <v>13345.01 EGP</v>
+        <v>13515.31 EGP</v>
       </c>
       <c r="D124" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>*******47</v>
+        <v>*******63</v>
       </c>
       <c r="B125" t="str">
         <v>x0</v>
       </c>
       <c r="C125" t="str">
-        <v>12408.35 EGP</v>
+        <v>11854.75 EGP</v>
       </c>
       <c r="D125" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>*******73</v>
+        <v>*******05</v>
       </c>
       <c r="B126" t="str">
         <v>x0</v>
       </c>
       <c r="C126" t="str">
-        <v>11087.3 EGP</v>
+        <v>10000 EGP</v>
       </c>
       <c r="D126" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>*******19</v>
+        <v>*******85</v>
       </c>
       <c r="B127" t="str">
         <v>x0</v>
       </c>
       <c r="C127" t="str">
-        <v>8287.24 EGP</v>
+        <v>9800 EGP</v>
       </c>
       <c r="D127" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>*******73</v>
+        <v>*******79</v>
       </c>
       <c r="B128" t="str">
-        <v>x1.75</v>
+        <v>x0</v>
       </c>
       <c r="C128" t="str">
-        <v>7000 EGP</v>
+        <v>8879.15 EGP</v>
       </c>
       <c r="D128" t="str">
-        <v>12250 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>*******43</v>
+        <v>*******39</v>
       </c>
       <c r="B129" t="str">
-        <v>x1.68</v>
+        <v>x0</v>
       </c>
       <c r="C129" t="str">
-        <v>6157.42 EGP</v>
+        <v>8191.82 EGP</v>
       </c>
       <c r="D129" t="str">
-        <v>10344.47 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>*******43</v>
+        <v>*******85</v>
       </c>
       <c r="B130" t="str">
         <v>x0</v>
       </c>
       <c r="C130" t="str">
-        <v>6000 EGP</v>
+        <v>7288.99 EGP</v>
       </c>
       <c r="D130" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>*******07</v>
+        <v>*******09</v>
       </c>
       <c r="B131" t="str">
         <v>x0</v>
       </c>
       <c r="C131" t="str">
-        <v>5694.64 EGP</v>
+        <v>6255.75 EGP</v>
       </c>
       <c r="D131" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>*******77</v>
+        <v>*******99</v>
       </c>
       <c r="B132" t="str">
-        <v>x1.06</v>
+        <v>x0</v>
       </c>
       <c r="C132" t="str">
-        <v>5111.83 EGP</v>
+        <v>5334.99 EGP</v>
       </c>
       <c r="D132" t="str">
-        <v>5418.54 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E132">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>*******59</v>
+        <v>*******19</v>
       </c>
       <c r="B133" t="str">
         <v>x0</v>
       </c>
       <c r="C133" t="str">
-        <v>5015.83 EGP</v>
+        <v>5102.75 EGP</v>
       </c>
       <c r="D133" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>*******99</v>
+        <v>*******05</v>
       </c>
       <c r="B134" t="str">
-        <v>x1.34</v>
+        <v>x0</v>
       </c>
       <c r="C134" t="str">
-        <v>5010 EGP</v>
+        <v>5074.3 EGP</v>
       </c>
       <c r="D134" t="str">
-        <v>6713.4 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>*******03</v>
+        <v>*******73</v>
       </c>
       <c r="B135" t="str">
         <v>x0</v>
       </c>
       <c r="C135" t="str">
-        <v>4892.11 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D135" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>*******51</v>
+        <v>*******85</v>
       </c>
       <c r="B136" t="str">
-        <v>x1.51</v>
+        <v>x0</v>
       </c>
       <c r="C136" t="str">
-        <v>4746.48 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D136" t="str">
-        <v>7167.18 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>*******79</v>
+        <v>*******01</v>
       </c>
       <c r="B137" t="str">
         <v>x0</v>
       </c>
       <c r="C137" t="str">
-        <v>4618.17 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D137" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>*******57</v>
+        <v>*******55</v>
       </c>
       <c r="B138" t="str">
         <v>x0</v>
       </c>
       <c r="C138" t="str">
-        <v>4089.91 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D138" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>*******59</v>
+        <v>*******63</v>
       </c>
       <c r="B139" t="str">
         <v>x0</v>
       </c>
       <c r="C139" t="str">
-        <v>4089.91 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D139" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>*******93</v>
+        <v>*******61</v>
       </c>
       <c r="B140" t="str">
         <v>x0</v>
       </c>
       <c r="C140" t="str">
-        <v>4076.61 EGP</v>
+        <v>4905.85 EGP</v>
       </c>
       <c r="D140" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>*******27</v>
+        <v>*******51</v>
       </c>
       <c r="B141" t="str">
         <v>x0</v>
       </c>
       <c r="C141" t="str">
-        <v>4076.55 EGP</v>
+        <v>4738.96 EGP</v>
       </c>
       <c r="D141" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E141">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>*******91</v>
+        <v>*******79</v>
       </c>
       <c r="B142" t="str">
-        <v>x2.03</v>
+        <v>x0</v>
       </c>
       <c r="C142" t="str">
-        <v>4022.99 EGP</v>
+        <v>4100.95 EGP</v>
       </c>
       <c r="D142" t="str">
-        <v>8166.68 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>*******41</v>
+        <v>*******31</v>
       </c>
       <c r="B143" t="str">
         <v>x0</v>
       </c>
       <c r="C143" t="str">
-        <v>4006.99 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D143" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>*******87</v>
+        <v>*******17</v>
       </c>
       <c r="B144" t="str">
         <v>x0</v>
       </c>
       <c r="C144" t="str">
-        <v>3943.41 EGP</v>
+        <v>4076.23 EGP</v>
       </c>
       <c r="D144" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>*******61</v>
+        <v>*******33</v>
       </c>
       <c r="B145" t="str">
-        <v>x1.16</v>
+        <v>x0</v>
       </c>
       <c r="C145" t="str">
-        <v>3695.77 EGP</v>
+        <v>4000 EGP</v>
       </c>
       <c r="D145" t="str">
-        <v>4287.09 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>*******67</v>
+        <v>*******37</v>
       </c>
       <c r="B146" t="str">
-        <v>x1.57</v>
+        <v>x0</v>
       </c>
       <c r="C146" t="str">
-        <v>3680.92 EGP</v>
+        <v>3900.81 EGP</v>
       </c>
       <c r="D146" t="str">
-        <v>5779.04 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>*******51</v>
+        <v>*******99</v>
       </c>
       <c r="B147" t="str">
         <v>x0</v>
       </c>
       <c r="C147" t="str">
-        <v>3403.39 EGP</v>
+        <v>3712.46 EGP</v>
       </c>
       <c r="D147" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>*******67</v>
+        <v>*******89</v>
       </c>
       <c r="B148" t="str">
         <v>x0</v>
       </c>
       <c r="C148" t="str">
-        <v>3295.07 EGP</v>
+        <v>3710.45 EGP</v>
       </c>
       <c r="D148" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>*******37</v>
+        <v>*******83</v>
       </c>
       <c r="B149" t="str">
         <v>x0</v>
       </c>
       <c r="C149" t="str">
-        <v>3261.25 EGP</v>
+        <v>3690.86 EGP</v>
       </c>
       <c r="D149" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>*******25</v>
+        <v>*******41</v>
       </c>
       <c r="B150" t="str">
-        <v>x1.84</v>
+        <v>x0</v>
       </c>
       <c r="C150" t="str">
-        <v>3191.18 EGP</v>
+        <v>3636.68 EGP</v>
       </c>
       <c r="D150" t="str">
-        <v>5871.76 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>*******45</v>
+        <v>*******17</v>
       </c>
       <c r="B151" t="str">
         <v>x0</v>
       </c>
       <c r="C151" t="str">
-        <v>3090.06 EGP</v>
+        <v>3600 EGP</v>
       </c>
       <c r="D151" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>*******71</v>
+        <v>*******93</v>
       </c>
       <c r="B152" t="str">
         <v>x0</v>
       </c>
       <c r="C152" t="str">
-        <v>26224.07 EGP</v>
+        <v>26101.41 EGP</v>
       </c>
       <c r="D152" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E152">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>*******19</v>
+        <v>*******03</v>
       </c>
       <c r="B153" t="str">
-        <v>x1.13</v>
+        <v>x1.42</v>
       </c>
       <c r="C153" t="str">
-        <v>21852.19 EGP</v>
+        <v>21338.56 EGP</v>
       </c>
       <c r="D153" t="str">
-        <v>24692.97 EGP</v>
+        <v>30300.75 EGP</v>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>*******69</v>
+        <v>*******35</v>
       </c>
       <c r="B154" t="str">
         <v>x0</v>
       </c>
       <c r="C154" t="str">
-        <v>18287.61 EGP</v>
+        <v>20000 EGP</v>
       </c>
       <c r="D154" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E154">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>*******09</v>
+        <v>*******05</v>
       </c>
       <c r="B155" t="str">
         <v>x0</v>
       </c>
       <c r="C155" t="str">
-        <v>15000 EGP</v>
+        <v>17500 EGP</v>
       </c>
       <c r="D155" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E155">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>*******71</v>
+        <v>*******55</v>
       </c>
       <c r="B156" t="str">
         <v>x0</v>
       </c>
       <c r="C156" t="str">
-        <v>14290 EGP</v>
+        <v>12899.38 EGP</v>
       </c>
       <c r="D156" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>*******47</v>
+        <v>*******07</v>
       </c>
       <c r="B157" t="str">
         <v>x0</v>
       </c>
       <c r="C157" t="str">
-        <v>12408.35 EGP</v>
+        <v>12257.07 EGP</v>
       </c>
       <c r="D157" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E157">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>*******73</v>
+        <v>*******79</v>
       </c>
       <c r="B158" t="str">
         <v>x0</v>
       </c>
       <c r="C158" t="str">
-        <v>11087.3 EGP</v>
+        <v>11720.48 EGP</v>
       </c>
       <c r="D158" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>*******05</v>
+        <v>*******11</v>
       </c>
       <c r="B159" t="str">
-        <v>x0</v>
+        <v>x1.84</v>
       </c>
       <c r="C159" t="str">
-        <v>10702.85 EGP</v>
+        <v>11302.32 EGP</v>
       </c>
       <c r="D159" t="str">
-        <v>0 EGP</v>
+        <v>20796.28 EGP</v>
       </c>
       <c r="E159">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>*******59</v>
+        <v>*******91</v>
       </c>
       <c r="B160" t="str">
         <v>x0</v>
       </c>
       <c r="C160" t="str">
-        <v>9834.96 EGP</v>
+        <v>7708.35 EGP</v>
       </c>
       <c r="D160" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E160">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>*******43</v>
+        <v>*******73</v>
       </c>
       <c r="B161" t="str">
-        <v>x0</v>
+        <v>x1.19</v>
       </c>
       <c r="C161" t="str">
-        <v>8419.57 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D161" t="str">
-        <v>0 EGP</v>
+        <v>5950 EGP</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>*******93</v>
+        <v>*******55</v>
       </c>
       <c r="B162" t="str">
         <v>x0</v>
       </c>
       <c r="C162" t="str">
-        <v>7337.9 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D162" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E162">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>*******43</v>
+        <v>*******63</v>
       </c>
       <c r="B163" t="str">
         <v>x0</v>
       </c>
       <c r="C163" t="str">
-        <v>7000 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D163" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E163">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>*******27</v>
+        <v>*******19</v>
       </c>
       <c r="B164" t="str">
-        <v>x1.29</v>
+        <v>x0</v>
       </c>
       <c r="C164" t="str">
-        <v>6392.73 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D164" t="str">
-        <v>8246.62 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E164">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>*******43</v>
+        <v>*******85</v>
       </c>
       <c r="B165" t="str">
         <v>x0</v>
       </c>
       <c r="C165" t="str">
-        <v>6157.42 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D165" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>*******77</v>
+        <v>*******61</v>
       </c>
       <c r="B166" t="str">
-        <v>x0</v>
+        <v>x1.86</v>
       </c>
       <c r="C166" t="str">
-        <v>5418.54 EGP</v>
+        <v>4905.85 EGP</v>
       </c>
       <c r="D166" t="str">
-        <v>0 EGP</v>
+        <v>9124.88 EGP</v>
       </c>
       <c r="E166">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>*******19</v>
+        <v>*******39</v>
       </c>
       <c r="B167" t="str">
         <v>x0</v>
       </c>
       <c r="C167" t="str">
-        <v>5327.51 EGP</v>
+        <v>4742.21 EGP</v>
       </c>
       <c r="D167" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E167">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>*******45</v>
+        <v>*******23</v>
       </c>
       <c r="B168" t="str">
         <v>x0</v>
       </c>
       <c r="C168" t="str">
-        <v>5000 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D168" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E168">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>*******87</v>
+        <v>*******07</v>
       </c>
       <c r="B169" t="str">
         <v>x0</v>
       </c>
       <c r="C169" t="str">
-        <v>4732.09 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D169" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E169">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>*******11</v>
+        <v>*******39</v>
       </c>
       <c r="B170" t="str">
         <v>x0</v>
       </c>
       <c r="C170" t="str">
-        <v>4094.45 EGP</v>
+        <v>3949.11 EGP</v>
       </c>
       <c r="D170" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E170">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>*******57</v>
+        <v>*******23</v>
       </c>
       <c r="B171" t="str">
         <v>x0</v>
       </c>
       <c r="C171" t="str">
-        <v>4089.91 EGP</v>
+        <v>3900.81 EGP</v>
       </c>
       <c r="D171" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E171">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>*******27</v>
+        <v>*******33</v>
       </c>
       <c r="B172" t="str">
         <v>x0</v>
       </c>
       <c r="C172" t="str">
-        <v>4076.55 EGP</v>
+        <v>3836.76 EGP</v>
       </c>
       <c r="D172" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E172">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>*******33</v>
+        <v>*******17</v>
       </c>
       <c r="B173" t="str">
         <v>x0</v>
       </c>
       <c r="C173" t="str">
-        <v>4076.55 EGP</v>
+        <v>3768.22 EGP</v>
       </c>
       <c r="D173" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E173">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>*******89</v>
+        <v>*******17</v>
       </c>
       <c r="B174" t="str">
-        <v>x0</v>
+        <v>x1.6</v>
       </c>
       <c r="C174" t="str">
-        <v>4065.34 EGP</v>
+        <v>3734.25 EGP</v>
       </c>
       <c r="D174" t="str">
-        <v>0 EGP</v>
+        <v>5974.8 EGP</v>
       </c>
       <c r="E174">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>*******41</v>
+        <v>*******99</v>
       </c>
       <c r="B175" t="str">
         <v>x0</v>
       </c>
       <c r="C175" t="str">
-        <v>4006.99 EGP</v>
+        <v>3712.46 EGP</v>
       </c>
       <c r="D175" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E175">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>*******39</v>
+        <v>*******41</v>
       </c>
       <c r="B176" t="str">
         <v>x0</v>
       </c>
       <c r="C176" t="str">
-        <v>4000 EGP</v>
+        <v>3636.68 EGP</v>
       </c>
       <c r="D176" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E176">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>*******51</v>
+        <v>*******77</v>
       </c>
       <c r="B177" t="str">
-        <v>x0</v>
+        <v>x1.05</v>
       </c>
       <c r="C177" t="str">
-        <v>3811.06 EGP</v>
+        <v>3413.38 EGP</v>
       </c>
       <c r="D177" t="str">
-        <v>0 EGP</v>
+        <v>3584.05 EGP</v>
       </c>
       <c r="E177">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>*******61</v>
+        <v>*******03</v>
       </c>
       <c r="B178" t="str">
         <v>x0</v>
       </c>
       <c r="C178" t="str">
-        <v>3695.77 EGP</v>
+        <v>3276.73 EGP</v>
       </c>
       <c r="D178" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E178">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>*******07</v>
+        <v>*******65</v>
       </c>
       <c r="B179" t="str">
-        <v>x1.23</v>
+        <v>x0</v>
       </c>
       <c r="C179" t="str">
-        <v>3695.77 EGP</v>
+        <v>3196.49 EGP</v>
       </c>
       <c r="D179" t="str">
-        <v>4545.79 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E179">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>*******47</v>
+        <v>*******17</v>
       </c>
       <c r="B180" t="str">
         <v>x0</v>
       </c>
       <c r="C180" t="str">
-        <v>3640.54 EGP</v>
+        <v>3082.22 EGP</v>
       </c>
       <c r="D180" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E180">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>*******45</v>
+        <v>*******77</v>
       </c>
       <c r="B181" t="str">
         <v>x0</v>
       </c>
       <c r="C181" t="str">
-        <v>3090.06 EGP</v>
+        <v>3000 EGP</v>
       </c>
       <c r="D181" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E181">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>*******71</v>
+        <v>*******93</v>
       </c>
       <c r="B182" t="str">
-        <v>x0</v>
+        <v>x2.47</v>
       </c>
       <c r="C182" t="str">
-        <v>26224.07 EGP</v>
+        <v>26101.41 EGP</v>
       </c>
       <c r="D182" t="str">
-        <v>0 EGP</v>
+        <v>64470.45 EGP</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>*******71</v>
+        <v>*******35</v>
       </c>
       <c r="B183" t="str">
-        <v>x0</v>
+        <v>x2.43</v>
       </c>
       <c r="C183" t="str">
-        <v>24588.14 EGP</v>
+        <v>25000 EGP</v>
       </c>
       <c r="D183" t="str">
-        <v>0 EGP</v>
+        <v>60750 EGP</v>
       </c>
       <c r="E183">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>*******69</v>
+        <v>*******03</v>
       </c>
       <c r="B184" t="str">
-        <v>x0</v>
+        <v>x1.5</v>
       </c>
       <c r="C184" t="str">
-        <v>18287.61 EGP</v>
+        <v>21338.56 EGP</v>
       </c>
       <c r="D184" t="str">
-        <v>0 EGP</v>
+        <v>32007.84 EGP</v>
       </c>
       <c r="E184">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>*******09</v>
+        <v>*******99</v>
       </c>
       <c r="B185" t="str">
-        <v>x0</v>
+        <v>x4.21</v>
       </c>
       <c r="C185" t="str">
-        <v>15000 EGP</v>
+        <v>13322.08 EGP</v>
       </c>
       <c r="D185" t="str">
-        <v>0 EGP</v>
+        <v>56085.95 EGP</v>
       </c>
       <c r="E185">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>*******47</v>
+        <v>*******99</v>
       </c>
       <c r="B186" t="str">
-        <v>x0</v>
+        <v>x1.94</v>
       </c>
       <c r="C186" t="str">
-        <v>12408.35 EGP</v>
+        <v>12448.31 EGP</v>
       </c>
       <c r="D186" t="str">
-        <v>0 EGP</v>
+        <v>24149.72 EGP</v>
       </c>
       <c r="E186">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>*******73</v>
+        <v>*******39</v>
       </c>
       <c r="B187" t="str">
-        <v>x0</v>
+        <v>x1.79</v>
       </c>
       <c r="C187" t="str">
-        <v>11087.3 EGP</v>
+        <v>12287.72 EGP</v>
       </c>
       <c r="D187" t="str">
-        <v>0 EGP</v>
+        <v>21995.03 EGP</v>
       </c>
       <c r="E187">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>*******59</v>
+        <v>*******07</v>
       </c>
       <c r="B188" t="str">
-        <v>x0</v>
+        <v>x2</v>
       </c>
       <c r="C188" t="str">
-        <v>9834.96 EGP</v>
+        <v>12257.07 EGP</v>
       </c>
       <c r="D188" t="str">
-        <v>0 EGP</v>
+        <v>24514.14 EGP</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>*******67</v>
+        <v>*******63</v>
       </c>
       <c r="B189" t="str">
-        <v>x0</v>
+        <v>x1.97</v>
       </c>
       <c r="C189" t="str">
-        <v>9834.47 EGP</v>
+        <v>11854.75 EGP</v>
       </c>
       <c r="D189" t="str">
-        <v>0 EGP</v>
+        <v>23353.87 EGP</v>
       </c>
       <c r="E189">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>*******45</v>
+        <v>*******17</v>
       </c>
       <c r="B190" t="str">
-        <v>x0</v>
+        <v>x1.54</v>
       </c>
       <c r="C190" t="str">
-        <v>9250.5 EGP</v>
+        <v>9000 EGP</v>
       </c>
       <c r="D190" t="str">
-        <v>0 EGP</v>
+        <v>13860 EGP</v>
       </c>
       <c r="E190">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>*******43</v>
+        <v>*******85</v>
       </c>
       <c r="B191" t="str">
-        <v>x0</v>
+        <v>x1.89</v>
       </c>
       <c r="C191" t="str">
-        <v>8419.57 EGP</v>
+        <v>8000 EGP</v>
       </c>
       <c r="D191" t="str">
-        <v>0 EGP</v>
+        <v>15120 EGP</v>
       </c>
       <c r="E191">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>*******43</v>
+        <v>*******23</v>
       </c>
       <c r="B192" t="str">
-        <v>x0</v>
+        <v>x1.45</v>
       </c>
       <c r="C192" t="str">
-        <v>7000 EGP</v>
+        <v>8000 EGP</v>
       </c>
       <c r="D192" t="str">
-        <v>0 EGP</v>
+        <v>11600 EGP</v>
       </c>
       <c r="E192">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>*******97</v>
+        <v>*******91</v>
       </c>
       <c r="B193" t="str">
-        <v>x0</v>
+        <v>x2</v>
       </c>
       <c r="C193" t="str">
-        <v>6410 EGP</v>
+        <v>7708.35 EGP</v>
       </c>
       <c r="D193" t="str">
-        <v>0 EGP</v>
+        <v>15416.71 EGP</v>
       </c>
       <c r="E193">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>*******27</v>
+        <v>*******05</v>
       </c>
       <c r="B194" t="str">
-        <v>x0</v>
+        <v>x4</v>
       </c>
       <c r="C194" t="str">
-        <v>6392.73 EGP</v>
+        <v>7500 EGP</v>
       </c>
       <c r="D194" t="str">
-        <v>0 EGP</v>
+        <v>30000 EGP</v>
       </c>
       <c r="E194">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>*******43</v>
+        <v>*******99</v>
       </c>
       <c r="B195" t="str">
-        <v>x0</v>
+        <v>x1.68</v>
       </c>
       <c r="C195" t="str">
-        <v>6157.42 EGP</v>
+        <v>7424.92 EGP</v>
       </c>
       <c r="D195" t="str">
-        <v>0 EGP</v>
+        <v>12473.86 EGP</v>
       </c>
       <c r="E195">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>*******55</v>
+        <v>*******79</v>
       </c>
       <c r="B196" t="str">
-        <v>x0</v>
+        <v>x2.08</v>
       </c>
       <c r="C196" t="str">
-        <v>5339.35 EGP</v>
+        <v>7354.24 EGP</v>
       </c>
       <c r="D196" t="str">
-        <v>0 EGP</v>
+        <v>15296.83 EGP</v>
       </c>
       <c r="E196">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>*******19</v>
+        <v>*******03</v>
       </c>
       <c r="B197" t="str">
-        <v>x0</v>
+        <v>x2.45</v>
       </c>
       <c r="C197" t="str">
-        <v>5327.51 EGP</v>
+        <v>6553.45 EGP</v>
       </c>
       <c r="D197" t="str">
-        <v>0 EGP</v>
+        <v>16055.96 EGP</v>
       </c>
       <c r="E197">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>*******29</v>
+        <v>*******73</v>
       </c>
       <c r="B198" t="str">
-        <v>x0</v>
+        <v>x1.37</v>
       </c>
       <c r="C198" t="str">
-        <v>5323.6 EGP</v>
+        <v>5950 EGP</v>
       </c>
       <c r="D198" t="str">
-        <v>0 EGP</v>
+        <v>8151.5 EGP</v>
       </c>
       <c r="E198">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>*******45</v>
+        <v>*******59</v>
       </c>
       <c r="B199" t="str">
-        <v>x0</v>
+        <v>x1.12</v>
       </c>
       <c r="C199" t="str">
-        <v>5000 EGP</v>
+        <v>5400 EGP</v>
       </c>
       <c r="D199" t="str">
-        <v>0 EGP</v>
+        <v>6048 EGP</v>
       </c>
       <c r="E199">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>*******93</v>
+        <v>*******51</v>
       </c>
       <c r="B200" t="str">
-        <v>x0</v>
+        <v>x1.32</v>
       </c>
       <c r="C200" t="str">
-        <v>4891.93 EGP</v>
+        <v>5339.44 EGP</v>
       </c>
       <c r="D200" t="str">
-        <v>0 EGP</v>
+        <v>7048.06 EGP</v>
       </c>
       <c r="E200">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>*******47</v>
+        <v>*******11</v>
       </c>
       <c r="B201" t="str">
-        <v>x0</v>
+        <v>x1.36</v>
       </c>
       <c r="C201" t="str">
-        <v>4732.7 EGP</v>
+        <v>5334.64 EGP</v>
       </c>
       <c r="D201" t="str">
-        <v>0 EGP</v>
+        <v>7255.11 EGP</v>
       </c>
       <c r="E201">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>*******57</v>
+        <v>*******33</v>
       </c>
       <c r="B202" t="str">
-        <v>x0</v>
+        <v>x1.9</v>
       </c>
       <c r="C202" t="str">
-        <v>4089.91 EGP</v>
+        <v>5328.83 EGP</v>
       </c>
       <c r="D202" t="str">
-        <v>0 EGP</v>
+        <v>10124.78 EGP</v>
       </c>
       <c r="E202">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>*******61</v>
+        <v>*******65</v>
       </c>
       <c r="B203" t="str">
-        <v>x0</v>
+        <v>x1.42</v>
       </c>
       <c r="C203" t="str">
-        <v>3695.77 EGP</v>
+        <v>5010 EGP</v>
       </c>
       <c r="D203" t="str">
-        <v>0 EGP</v>
+        <v>7114.2 EGP</v>
       </c>
       <c r="E203">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>*******47</v>
+        <v>*******19</v>
       </c>
       <c r="B204" t="str">
-        <v>x0</v>
+        <v>x1.85</v>
       </c>
       <c r="C204" t="str">
-        <v>3695.77 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D204" t="str">
-        <v>0 EGP</v>
+        <v>9250 EGP</v>
       </c>
       <c r="E204">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>*******25</v>
+        <v>*******63</v>
       </c>
       <c r="B205" t="str">
-        <v>x0</v>
+        <v>x3.06</v>
       </c>
       <c r="C205" t="str">
-        <v>3567.03 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D205" t="str">
-        <v>0 EGP</v>
+        <v>15300 EGP</v>
       </c>
       <c r="E205">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>*******27</v>
+        <v>*******75</v>
       </c>
       <c r="B206" t="str">
-        <v>x0</v>
+        <v>x2.35</v>
       </c>
       <c r="C206" t="str">
-        <v>3440 EGP</v>
+        <v>4874.14 EGP</v>
       </c>
       <c r="D206" t="str">
-        <v>0 EGP</v>
+        <v>11454.24 EGP</v>
       </c>
       <c r="E206">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>*******95</v>
+        <v>*******51</v>
       </c>
       <c r="B207" t="str">
-        <v>x0</v>
+        <v>x3.96</v>
       </c>
       <c r="C207" t="str">
-        <v>3439.48 EGP</v>
+        <v>4738.96 EGP</v>
       </c>
       <c r="D207" t="str">
-        <v>0 EGP</v>
+        <v>18766.28 EGP</v>
       </c>
       <c r="E207">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>*******87</v>
+        <v>*******17</v>
       </c>
       <c r="B208" t="str">
-        <v>x0</v>
+        <v>x2.21</v>
       </c>
       <c r="C208" t="str">
-        <v>3295.07 EGP</v>
+        <v>4623.33 EGP</v>
       </c>
       <c r="D208" t="str">
-        <v>0 EGP</v>
+        <v>10217.55 EGP</v>
       </c>
       <c r="E208">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>*******37</v>
+        <v>*******55</v>
       </c>
       <c r="B209" t="str">
-        <v>x0</v>
+        <v>x2.99</v>
       </c>
       <c r="C209" t="str">
-        <v>3261.25 EGP</v>
+        <v>4098.66 EGP</v>
       </c>
       <c r="D209" t="str">
-        <v>0 EGP</v>
+        <v>12254.98 EGP</v>
       </c>
       <c r="E209">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>*******45</v>
+        <v>*******95</v>
       </c>
       <c r="B210" t="str">
-        <v>x0</v>
+        <v>x2.03</v>
       </c>
       <c r="C210" t="str">
-        <v>3090.06 EGP</v>
+        <v>4095.91 EGP</v>
       </c>
       <c r="D210" t="str">
-        <v>0 EGP</v>
+        <v>8314.69 EGP</v>
       </c>
       <c r="E210">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>*******79</v>
+        <v>*******23</v>
       </c>
       <c r="B211" t="str">
-        <v>x0</v>
+        <v>x3.29</v>
       </c>
       <c r="C211" t="str">
-        <v>3078.78 EGP</v>
+        <v>4085.69 EGP</v>
       </c>
       <c r="D211" t="str">
-        <v>0 EGP</v>
+        <v>13441.92 EGP</v>
       </c>
       <c r="E211">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>*******71</v>
+        <v>*******93</v>
       </c>
       <c r="B212" t="str">
         <v>x0</v>
       </c>
       <c r="C212" t="str">
-        <v>26224.07 EGP</v>
+        <v>15076.13 EGP</v>
       </c>
       <c r="D212" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E212">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>*******33</v>
+        <v>*******99</v>
       </c>
       <c r="B213" t="str">
-        <v>x0</v>
+        <v>x1.65</v>
       </c>
       <c r="C213" t="str">
-        <v>24912.07 EGP</v>
+        <v>12448.31 EGP</v>
       </c>
       <c r="D213" t="str">
-        <v>0 EGP</v>
+        <v>20539.71 EGP</v>
       </c>
       <c r="E213">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>*******19</v>
+        <v>*******35</v>
       </c>
       <c r="B214" t="str">
-        <v>x1.03</v>
+        <v>x0</v>
       </c>
       <c r="C214" t="str">
-        <v>24581.25 EGP</v>
+        <v>10000 EGP</v>
       </c>
       <c r="D214" t="str">
-        <v>25318.69 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>*******69</v>
+        <v>*******17</v>
       </c>
       <c r="B215" t="str">
-        <v>x1.63</v>
+        <v>x2.05</v>
       </c>
       <c r="C215" t="str">
-        <v>23230.21 EGP</v>
+        <v>9420.54 EGP</v>
       </c>
       <c r="D215" t="str">
-        <v>37865.24 EGP</v>
+        <v>19312.11 EGP</v>
       </c>
       <c r="E215">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>*******73</v>
+        <v>*******85</v>
       </c>
       <c r="B216" t="str">
-        <v>x0</v>
+        <v>x1.5</v>
       </c>
       <c r="C216" t="str">
-        <v>22174.59 EGP</v>
+        <v>8200 EGP</v>
       </c>
       <c r="D216" t="str">
-        <v>0 EGP</v>
+        <v>12300 EGP</v>
       </c>
       <c r="E216">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>*******71</v>
+        <v>*******99</v>
       </c>
       <c r="B217" t="str">
-        <v>x1.08</v>
+        <v>x0</v>
       </c>
       <c r="C217" t="str">
-        <v>19670.51 EGP</v>
+        <v>7993.25 EGP</v>
       </c>
       <c r="D217" t="str">
-        <v>21244.15 EGP</v>
+        <v>0 EGP</v>
       </c>
       <c r="E217">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>*******67</v>
+        <v>*******91</v>
       </c>
       <c r="B218" t="str">
         <v>x0</v>
       </c>
       <c r="C218" t="str">
-        <v>14751.7 EGP</v>
+        <v>7708.35 EGP</v>
       </c>
       <c r="D218" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E218">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>*******43</v>
+        <v>*******77</v>
       </c>
       <c r="B219" t="str">
-        <v>x1.44</v>
+        <v>x1.06</v>
       </c>
       <c r="C219" t="str">
-        <v>12314.84 EGP</v>
+        <v>6997.43 EGP</v>
       </c>
       <c r="D219" t="str">
-        <v>17733.37 EGP</v>
+        <v>7417.27 EGP</v>
       </c>
       <c r="E219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>*******29</v>
+        <v>*******45</v>
       </c>
       <c r="B220" t="str">
-        <v>x0</v>
+        <v>x1.19</v>
       </c>
       <c r="C220" t="str">
-        <v>10647.2 EGP</v>
+        <v>6748.15 EGP</v>
       </c>
       <c r="D220" t="str">
-        <v>0 EGP</v>
+        <v>8030.3 EGP</v>
       </c>
       <c r="E220">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>*******19</v>
+        <v>*******77</v>
       </c>
       <c r="B221" t="str">
-        <v>x0</v>
+        <v>x1.75</v>
       </c>
       <c r="C221" t="str">
-        <v>7103.35 EGP</v>
+        <v>5923.19 EGP</v>
       </c>
       <c r="D221" t="str">
-        <v>0 EGP</v>
+        <v>10365.59 EGP</v>
       </c>
       <c r="E221">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>*******43</v>
+        <v>*******11</v>
       </c>
       <c r="B222" t="str">
-        <v>x0</v>
+        <v>x1.42</v>
       </c>
       <c r="C222" t="str">
-        <v>7000 EGP</v>
+        <v>5334.64 EGP</v>
       </c>
       <c r="D222" t="str">
-        <v>0 EGP</v>
+        <v>7575.19 EGP</v>
       </c>
       <c r="E222">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>*******93</v>
+        <v>*******19</v>
       </c>
       <c r="B223" t="str">
         <v>x0</v>
       </c>
       <c r="C223" t="str">
-        <v>6522.58 EGP</v>
+        <v>5102.75 EGP</v>
       </c>
       <c r="D223" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E223">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>*******97</v>
+        <v>*******05</v>
       </c>
       <c r="B224" t="str">
         <v>x0</v>
       </c>
       <c r="C224" t="str">
-        <v>6410 EGP</v>
+        <v>5074.3 EGP</v>
       </c>
       <c r="D224" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E224">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>*******27</v>
+        <v>*******57</v>
       </c>
       <c r="B225" t="str">
-        <v>x1.48</v>
+        <v>x1.01</v>
       </c>
       <c r="C225" t="str">
-        <v>6392.73 EGP</v>
+        <v>5007.45 EGP</v>
       </c>
       <c r="D225" t="str">
-        <v>9461.24 EGP</v>
+        <v>5057.52 EGP</v>
       </c>
       <c r="E225">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>*******47</v>
+        <v>*******05</v>
       </c>
       <c r="B226" t="str">
         <v>x0</v>
       </c>
       <c r="C226" t="str">
-        <v>6204.18 EGP</v>
+        <v>5000 EGP</v>
       </c>
       <c r="D226" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E226">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>*******55</v>
+        <v>*******49</v>
       </c>
       <c r="B227" t="str">
-        <v>x0</v>
+        <v>x2</v>
       </c>
       <c r="C227" t="str">
-        <v>5339.35 EGP</v>
+        <v>4926.66 EGP</v>
       </c>
       <c r="D227" t="str">
-        <v>0 EGP</v>
+        <v>9853.31 EGP</v>
       </c>
       <c r="E227">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>*******33</v>
+        <v>*******71</v>
       </c>
       <c r="B228" t="str">
         <v>x0</v>
       </c>
       <c r="C228" t="str">
-        <v>5326.47 EGP</v>
+        <v>4926.51 EGP</v>
       </c>
       <c r="D228" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E228">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>*******25</v>
+        <v>*******49</v>
       </c>
       <c r="B229" t="str">
-        <v>x1.06</v>
+        <v>x2.31</v>
       </c>
       <c r="C229" t="str">
-        <v>5318.63 EGP</v>
+        <v>4926.51 EGP</v>
       </c>
       <c r="D229" t="str">
-        <v>5637.74 EGP</v>
+        <v>11380.24 EGP</v>
       </c>
       <c r="E229">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>*******79</v>
+        <v>*******61</v>
       </c>
       <c r="B230" t="str">
-        <v>x0</v>
+        <v>x2.05</v>
       </c>
       <c r="C230" t="str">
-        <v>5130.52 EGP</v>
+        <v>4807.73 EGP</v>
       </c>
       <c r="D230" t="str">
-        <v>0 EGP</v>
+        <v>9855.85 EGP</v>
       </c>
       <c r="E230">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>*******99</v>
+        <v>*******85</v>
       </c>
       <c r="B231" t="str">
-        <v>x1.25</v>
+        <v>x1.73</v>
       </c>
       <c r="C231" t="str">
-        <v>5010 EGP</v>
+        <v>4737.85 EGP</v>
       </c>
       <c r="D231" t="str">
-        <v>6262.5 EGP</v>
+        <v>8196.47 EGP</v>
       </c>
       <c r="E231">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>*******67</v>
+        <v>*******27</v>
       </c>
       <c r="B232" t="str">
-        <v>x0</v>
+        <v>x1.31</v>
       </c>
       <c r="C232" t="str">
-        <v>4942.6 EGP</v>
+        <v>4464.4 EGP</v>
       </c>
       <c r="D232" t="str">
-        <v>0 EGP</v>
+        <v>5848.37 EGP</v>
       </c>
       <c r="E232">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233">
@@ -4351,152 +4351,152 @@
         <v>*******87</v>
       </c>
       <c r="B233" t="str">
-        <v>x0</v>
+        <v>x2</v>
       </c>
       <c r="C233" t="str">
-        <v>4942.6 EGP</v>
+        <v>4369.33 EGP</v>
       </c>
       <c r="D233" t="str">
-        <v>0 EGP</v>
+        <v>8738.65 EGP</v>
       </c>
       <c r="E233">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>*******39</v>
+        <v>*******69</v>
       </c>
       <c r="B234" t="str">
-        <v>x0</v>
+        <v>x1.11</v>
       </c>
       <c r="C234" t="str">
-        <v>4735.72 EGP</v>
+        <v>4226.99 EGP</v>
       </c>
       <c r="D234" t="str">
-        <v>0 EGP</v>
+        <v>4691.96 EGP</v>
       </c>
       <c r="E234">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>*******07</v>
+        <v>*******17</v>
       </c>
       <c r="B235" t="str">
-        <v>x1.13</v>
+        <v>x1.6</v>
       </c>
       <c r="C235" t="str">
-        <v>4098.87 EGP</v>
+        <v>4103.09 EGP</v>
       </c>
       <c r="D235" t="str">
-        <v>4631.73 EGP</v>
+        <v>6564.95 EGP</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>*******71</v>
+        <v>*******45</v>
       </c>
       <c r="B236" t="str">
-        <v>x1.56</v>
+        <v>x1.38</v>
       </c>
       <c r="C236" t="str">
-        <v>4076.55 EGP</v>
+        <v>4100.95 EGP</v>
       </c>
       <c r="D236" t="str">
-        <v>6359.42 EGP</v>
+        <v>5659.31 EGP</v>
       </c>
       <c r="E236">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>*******41</v>
+        <v>*******13</v>
       </c>
       <c r="B237" t="str">
         <v>x0</v>
       </c>
       <c r="C237" t="str">
-        <v>4041.45 EGP</v>
+        <v>4097.04 EGP</v>
       </c>
       <c r="D237" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E237">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>*******47</v>
+        <v>*******39</v>
       </c>
       <c r="B238" t="str">
-        <v>x0</v>
+        <v>x1.59</v>
       </c>
       <c r="C238" t="str">
-        <v>3695.77 EGP</v>
+        <v>4095.91 EGP</v>
       </c>
       <c r="D238" t="str">
-        <v>0 EGP</v>
+        <v>6512.49 EGP</v>
       </c>
       <c r="E238">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>*******61</v>
+        <v>*******91</v>
       </c>
       <c r="B239" t="str">
         <v>x0</v>
       </c>
       <c r="C239" t="str">
-        <v>3695.77 EGP</v>
+        <v>3900.81 EGP</v>
       </c>
       <c r="D239" t="str">
         <v>0 EGP</v>
       </c>
       <c r="E239">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>*******91</v>
+        <v>*******23</v>
       </c>
       <c r="B240" t="str">
-        <v>x0</v>
+        <v>x2.41</v>
       </c>
       <c r="C240" t="str">
-        <v>3585.27 EGP</v>
+        <v>3900.81 EGP</v>
       </c>
       <c r="D240" t="str">
-        <v>0 EGP</v>
+        <v>9400.95 EGP</v>
       </c>
       <c r="E240">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>*******85</v>
+        <v>*******83</v>
       </c>
       <c r="B241" t="str">
-        <v>x1.66</v>
+        <v>x1.55</v>
       </c>
       <c r="C241" t="str">
-        <v>3460.34 EGP</v>
+        <v>3645.35 EGP</v>
       </c>
       <c r="D241" t="str">
-        <v>5744.16 EGP</v>
+        <v>5650.29 EGP</v>
       </c>
       <c r="E241">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
